--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6277,28 +6277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1451.29616462144</v>
+        <v>1852.488875030599</v>
       </c>
       <c r="AB2" t="n">
-        <v>1985.727439103062</v>
+        <v>2534.657004858097</v>
       </c>
       <c r="AC2" t="n">
-        <v>1796.21239930103</v>
+        <v>2292.752897727889</v>
       </c>
       <c r="AD2" t="n">
-        <v>1451296.16462144</v>
+        <v>1852488.875030599</v>
       </c>
       <c r="AE2" t="n">
-        <v>1985727.439103062</v>
+        <v>2534657.004858097</v>
       </c>
       <c r="AF2" t="n">
         <v>2.012640606971319e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1796212.39930103</v>
+        <v>2292752.897727889</v>
       </c>
     </row>
     <row r="3">
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.712801559185</v>
+        <v>1370.122795521203</v>
       </c>
       <c r="AB3" t="n">
-        <v>1459.52351514075</v>
+        <v>1874.662454383815</v>
       </c>
       <c r="AC3" t="n">
-        <v>1320.228639309835</v>
+        <v>1695.747300842703</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066712.801559185</v>
+        <v>1370122.795521202</v>
       </c>
       <c r="AE3" t="n">
-        <v>1459523.51514075</v>
+        <v>1874662.454383815</v>
       </c>
       <c r="AF3" t="n">
         <v>2.593578584170713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.52083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1320228.639309835</v>
+        <v>1695747.300842703</v>
       </c>
     </row>
     <row r="4">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>961.7330388553289</v>
+        <v>1245.53182485787</v>
       </c>
       <c r="AB4" t="n">
-        <v>1315.885572429071</v>
+        <v>1704.191591756545</v>
       </c>
       <c r="AC4" t="n">
-        <v>1190.29930025344</v>
+        <v>1541.545938087221</v>
       </c>
       <c r="AD4" t="n">
-        <v>961733.0388553289</v>
+        <v>1245531.82485787</v>
       </c>
       <c r="AE4" t="n">
-        <v>1315885.572429071</v>
+        <v>1704191.591756545</v>
       </c>
       <c r="AF4" t="n">
         <v>2.824471144669819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.57291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1190299.30025344</v>
+        <v>1541545.938087221</v>
       </c>
     </row>
     <row r="5">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>915.9804031002177</v>
+        <v>1180.168992173138</v>
       </c>
       <c r="AB5" t="n">
-        <v>1253.284797725094</v>
+        <v>1614.759280472632</v>
       </c>
       <c r="AC5" t="n">
-        <v>1133.673055626472</v>
+        <v>1460.648921073207</v>
       </c>
       <c r="AD5" t="n">
-        <v>915980.4031002177</v>
+        <v>1180168.992173138</v>
       </c>
       <c r="AE5" t="n">
-        <v>1253284.797725094</v>
+        <v>1614759.280472632</v>
       </c>
       <c r="AF5" t="n">
         <v>2.94766205922481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.25520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1133673.055626472</v>
+        <v>1460648.921073207</v>
       </c>
     </row>
     <row r="6">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>891.7364911014105</v>
+        <v>1146.170724322763</v>
       </c>
       <c r="AB6" t="n">
-        <v>1220.113207762415</v>
+        <v>1568.241350502029</v>
       </c>
       <c r="AC6" t="n">
-        <v>1103.667315653212</v>
+        <v>1418.570597050674</v>
       </c>
       <c r="AD6" t="n">
-        <v>891736.4911014105</v>
+        <v>1146170.724322763</v>
       </c>
       <c r="AE6" t="n">
-        <v>1220113.207762415</v>
+        <v>1568241.350502029</v>
       </c>
       <c r="AF6" t="n">
         <v>3.017634980848266e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.00520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1103667.315653212</v>
+        <v>1418570.597050674</v>
       </c>
     </row>
     <row r="7">
@@ -6807,28 +6807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>870.2416828763783</v>
+        <v>1124.64175067895</v>
       </c>
       <c r="AB7" t="n">
-        <v>1190.703062864914</v>
+        <v>1538.78445897128</v>
       </c>
       <c r="AC7" t="n">
-        <v>1077.06403370733</v>
+        <v>1391.925029904613</v>
       </c>
       <c r="AD7" t="n">
-        <v>870241.6828763783</v>
+        <v>1124641.75067895</v>
       </c>
       <c r="AE7" t="n">
-        <v>1190703.062864914</v>
+        <v>1538784.45897128</v>
       </c>
       <c r="AF7" t="n">
         <v>3.075915614103979e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1077064.03370733</v>
+        <v>1391925.029904613</v>
       </c>
     </row>
     <row r="8">
@@ -6913,28 +6913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.5515755879424</v>
+        <v>1107.917477971734</v>
       </c>
       <c r="AB8" t="n">
-        <v>1167.866921757309</v>
+        <v>1515.901571230427</v>
       </c>
       <c r="AC8" t="n">
-        <v>1056.40734185631</v>
+        <v>1371.226052853413</v>
       </c>
       <c r="AD8" t="n">
-        <v>853551.5755879424</v>
+        <v>1107917.477971734</v>
       </c>
       <c r="AE8" t="n">
-        <v>1167866.921757309</v>
+        <v>1515901.571230427</v>
       </c>
       <c r="AF8" t="n">
         <v>3.110088436292178e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1056407.34185631</v>
+        <v>1371226.052853412</v>
       </c>
     </row>
     <row r="9">
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>836.9030986741067</v>
+        <v>1091.336320865602</v>
       </c>
       <c r="AB9" t="n">
-        <v>1145.087741164834</v>
+        <v>1493.214500568794</v>
       </c>
       <c r="AC9" t="n">
-        <v>1035.8021742888</v>
+        <v>1350.704204374222</v>
       </c>
       <c r="AD9" t="n">
-        <v>836903.0986741066</v>
+        <v>1091336.320865602</v>
       </c>
       <c r="AE9" t="n">
-        <v>1145087.741164834</v>
+        <v>1493214.500568794</v>
       </c>
       <c r="AF9" t="n">
         <v>3.140343739181907e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.97395833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1035802.1742888</v>
+        <v>1350704.204374222</v>
       </c>
     </row>
     <row r="10">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>830.5542109334963</v>
+        <v>1084.987433124992</v>
       </c>
       <c r="AB10" t="n">
-        <v>1136.400912864972</v>
+        <v>1484.527672268932</v>
       </c>
       <c r="AC10" t="n">
-        <v>1027.944404689837</v>
+        <v>1342.846434775258</v>
       </c>
       <c r="AD10" t="n">
-        <v>830554.2109334962</v>
+        <v>1084987.433124992</v>
       </c>
       <c r="AE10" t="n">
-        <v>1136400.912864972</v>
+        <v>1484527.672268932</v>
       </c>
       <c r="AF10" t="n">
         <v>3.169694999156604e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.50520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1027944.404689837</v>
+        <v>1342846.434775258</v>
       </c>
     </row>
     <row r="11">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>828.2155721808036</v>
+        <v>1072.827118713027</v>
       </c>
       <c r="AB11" t="n">
-        <v>1133.201084150078</v>
+        <v>1467.889393615273</v>
       </c>
       <c r="AC11" t="n">
-        <v>1025.049963136504</v>
+        <v>1327.796090084333</v>
       </c>
       <c r="AD11" t="n">
-        <v>828215.5721808036</v>
+        <v>1072827.118713027</v>
       </c>
       <c r="AE11" t="n">
-        <v>1133201.084150078</v>
+        <v>1467889.393615273</v>
       </c>
       <c r="AF11" t="n">
         <v>3.178072463502565e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1025049.963136504</v>
+        <v>1327796.090084333</v>
       </c>
     </row>
     <row r="12">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>823.0889095241101</v>
+        <v>1067.700456056334</v>
       </c>
       <c r="AB12" t="n">
-        <v>1126.186558130796</v>
+        <v>1460.874867595991</v>
       </c>
       <c r="AC12" t="n">
-        <v>1018.704893635553</v>
+        <v>1321.451020583383</v>
       </c>
       <c r="AD12" t="n">
-        <v>823088.9095241101</v>
+        <v>1067700.456056334</v>
       </c>
       <c r="AE12" t="n">
-        <v>1126186.558130796</v>
+        <v>1460874.867595991</v>
       </c>
       <c r="AF12" t="n">
         <v>3.200974884016702e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.03645833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1018704.893635553</v>
+        <v>1321451.020583383</v>
       </c>
     </row>
     <row r="13">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>810.2706069630277</v>
+        <v>1064.669663735742</v>
       </c>
       <c r="AB13" t="n">
-        <v>1108.647991063125</v>
+        <v>1456.728003833837</v>
       </c>
       <c r="AC13" t="n">
-        <v>1002.840182793288</v>
+        <v>1317.699927678529</v>
       </c>
       <c r="AD13" t="n">
-        <v>810270.6069630277</v>
+        <v>1064669.663735742</v>
       </c>
       <c r="AE13" t="n">
-        <v>1108647.991063125</v>
+        <v>1456728.003833837</v>
       </c>
       <c r="AF13" t="n">
         <v>3.210256391277695e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.88020833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1002840.182793288</v>
+        <v>1317699.927678529</v>
       </c>
     </row>
     <row r="14">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>807.2779206787251</v>
+        <v>1051.956787018653</v>
       </c>
       <c r="AB14" t="n">
-        <v>1104.553265660941</v>
+        <v>1439.333685056978</v>
       </c>
       <c r="AC14" t="n">
-        <v>999.136252236505</v>
+        <v>1301.965698272654</v>
       </c>
       <c r="AD14" t="n">
-        <v>807277.9206787251</v>
+        <v>1051956.787018653</v>
       </c>
       <c r="AE14" t="n">
-        <v>1104553.265660941</v>
+        <v>1439333.685056978</v>
       </c>
       <c r="AF14" t="n">
         <v>3.219116011845006e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>999136.252236505</v>
+        <v>1301965.698272654</v>
       </c>
     </row>
     <row r="15">
@@ -7655,28 +7655,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>804.5360496644914</v>
+        <v>1049.214916004419</v>
       </c>
       <c r="AB15" t="n">
-        <v>1100.801716776454</v>
+        <v>1435.582136172491</v>
       </c>
       <c r="AC15" t="n">
-        <v>995.7427459122219</v>
+        <v>1298.572191948371</v>
       </c>
       <c r="AD15" t="n">
-        <v>804536.0496644914</v>
+        <v>1049214.916004419</v>
       </c>
       <c r="AE15" t="n">
-        <v>1100801.716776454</v>
+        <v>1435582.136172491</v>
       </c>
       <c r="AF15" t="n">
         <v>3.228276980050661e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.61979166666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>995742.745912222</v>
+        <v>1298572.191948371</v>
       </c>
     </row>
     <row r="16">
@@ -7761,28 +7761,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>800.9790221814671</v>
+        <v>1045.55640329491</v>
       </c>
       <c r="AB16" t="n">
-        <v>1095.934834849204</v>
+        <v>1430.576397681151</v>
       </c>
       <c r="AC16" t="n">
-        <v>991.340352365396</v>
+        <v>1294.044194113045</v>
       </c>
       <c r="AD16" t="n">
-        <v>800979.0221814672</v>
+        <v>1045556.40329491</v>
       </c>
       <c r="AE16" t="n">
-        <v>1095934.834849203</v>
+        <v>1430576.397681151</v>
       </c>
       <c r="AF16" t="n">
         <v>3.240873311333436e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH16" t="n">
-        <v>991340.352365396</v>
+        <v>1294044.194113045</v>
       </c>
     </row>
     <row r="17">
@@ -7867,28 +7867,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>797.4053737788585</v>
+        <v>1041.982754892301</v>
       </c>
       <c r="AB17" t="n">
-        <v>1091.045211446514</v>
+        <v>1425.686774278461</v>
       </c>
       <c r="AC17" t="n">
-        <v>986.9173877576294</v>
+        <v>1289.621229505279</v>
       </c>
       <c r="AD17" t="n">
-        <v>797405.3737788585</v>
+        <v>1041982.754892301</v>
       </c>
       <c r="AE17" t="n">
-        <v>1091045.211446514</v>
+        <v>1425686.774278461</v>
       </c>
       <c r="AF17" t="n">
         <v>3.250034279539091e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH17" t="n">
-        <v>986917.3877576294</v>
+        <v>1289621.229505279</v>
       </c>
     </row>
     <row r="18">
@@ -7973,28 +7973,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>796.4684644180406</v>
+        <v>1041.045845531483</v>
       </c>
       <c r="AB18" t="n">
-        <v>1089.763290725519</v>
+        <v>1424.404853557466</v>
       </c>
       <c r="AC18" t="n">
-        <v>985.7578117510593</v>
+        <v>1288.461653498709</v>
       </c>
       <c r="AD18" t="n">
-        <v>796468.4644180406</v>
+        <v>1041045.845531483</v>
       </c>
       <c r="AE18" t="n">
-        <v>1089763.290725519</v>
+        <v>1424404.853557466</v>
       </c>
       <c r="AF18" t="n">
         <v>3.250757513871116e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH18" t="n">
-        <v>985757.8117510593</v>
+        <v>1288461.653498709</v>
       </c>
     </row>
     <row r="19">
@@ -8079,28 +8079,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>793.220160518361</v>
+        <v>1028.077351199017</v>
       </c>
       <c r="AB19" t="n">
-        <v>1085.318818024923</v>
+        <v>1406.660787482195</v>
       </c>
       <c r="AC19" t="n">
-        <v>981.737513287152</v>
+        <v>1272.411056185708</v>
       </c>
       <c r="AD19" t="n">
-        <v>793220.160518361</v>
+        <v>1028077.351199017</v>
       </c>
       <c r="AE19" t="n">
-        <v>1085318.818024923</v>
+        <v>1406660.787482195</v>
       </c>
       <c r="AF19" t="n">
         <v>3.259918482076771e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>49</v>
+        <v>48.15104166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>981737.5132871519</v>
+        <v>1272411.056185708</v>
       </c>
     </row>
     <row r="20">
@@ -8185,28 +8185,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>792.1359429320414</v>
+        <v>1026.993133612697</v>
       </c>
       <c r="AB20" t="n">
-        <v>1083.835343691017</v>
+        <v>1405.177313148288</v>
       </c>
       <c r="AC20" t="n">
-        <v>980.395619661604</v>
+        <v>1271.06916256016</v>
       </c>
       <c r="AD20" t="n">
-        <v>792135.9429320414</v>
+        <v>1026993.133612697</v>
       </c>
       <c r="AE20" t="n">
-        <v>1083835.343691017</v>
+        <v>1405177.313148288</v>
       </c>
       <c r="AF20" t="n">
         <v>3.260641716408797e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH20" t="n">
-        <v>980395.6196616039</v>
+        <v>1271069.16256016</v>
       </c>
     </row>
     <row r="21">
@@ -8291,28 +8291,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>778.5100488099577</v>
+        <v>1023.154749731105</v>
       </c>
       <c r="AB21" t="n">
-        <v>1065.191794221159</v>
+        <v>1399.925466983948</v>
       </c>
       <c r="AC21" t="n">
-        <v>963.5313843867634</v>
+        <v>1266.318545222732</v>
       </c>
       <c r="AD21" t="n">
-        <v>778510.0488099577</v>
+        <v>1023154.749731105</v>
       </c>
       <c r="AE21" t="n">
-        <v>1065191.794221159</v>
+        <v>1399925.466983948</v>
       </c>
       <c r="AF21" t="n">
         <v>3.271309422806172e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH21" t="n">
-        <v>963531.3843867634</v>
+        <v>1266318.545222732</v>
       </c>
     </row>
     <row r="22">
@@ -8397,28 +8397,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>776.8328306242197</v>
+        <v>1021.477531545367</v>
       </c>
       <c r="AB22" t="n">
-        <v>1062.896950305788</v>
+        <v>1397.630623068577</v>
       </c>
       <c r="AC22" t="n">
-        <v>961.4555571538417</v>
+        <v>1264.24271798981</v>
       </c>
       <c r="AD22" t="n">
-        <v>776832.8306242197</v>
+        <v>1021477.531545367</v>
       </c>
       <c r="AE22" t="n">
-        <v>1062896.950305788</v>
+        <v>1397630.623068577</v>
       </c>
       <c r="AF22" t="n">
         <v>3.272213465721203e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH22" t="n">
-        <v>961455.5571538417</v>
+        <v>1264242.717989811</v>
       </c>
     </row>
     <row r="23">
@@ -8503,28 +8503,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>773.9756712588461</v>
+        <v>1018.620372179993</v>
       </c>
       <c r="AB23" t="n">
-        <v>1058.987658813109</v>
+        <v>1393.721331575897</v>
       </c>
       <c r="AC23" t="n">
-        <v>957.9193629544988</v>
+        <v>1260.706523790467</v>
       </c>
       <c r="AD23" t="n">
-        <v>773975.6712588461</v>
+        <v>1018620.372179993</v>
       </c>
       <c r="AE23" t="n">
-        <v>1058987.658813109</v>
+        <v>1393721.331575898</v>
       </c>
       <c r="AF23" t="n">
         <v>3.271008075167827e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>48</v>
+        <v>47.99479166666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>957919.3629544987</v>
+        <v>1260706.523790467</v>
       </c>
     </row>
     <row r="24">
@@ -8609,28 +8609,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>772.2806420553723</v>
+        <v>1016.925342976519</v>
       </c>
       <c r="AB24" t="n">
-        <v>1056.668445077505</v>
+        <v>1391.402117840294</v>
       </c>
       <c r="AC24" t="n">
-        <v>955.8214917227842</v>
+        <v>1258.608652558753</v>
       </c>
       <c r="AD24" t="n">
-        <v>772280.6420553722</v>
+        <v>1016925.342976519</v>
       </c>
       <c r="AE24" t="n">
-        <v>1056668.445077505</v>
+        <v>1391402.117840294</v>
       </c>
       <c r="AF24" t="n">
         <v>3.279747156679801e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>955821.4917227842</v>
+        <v>1258608.652558753</v>
       </c>
     </row>
     <row r="25">
@@ -8715,28 +8715,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>771.9291289516832</v>
+        <v>1016.573829872831</v>
       </c>
       <c r="AB25" t="n">
-        <v>1056.187489341374</v>
+        <v>1390.921162104163</v>
       </c>
       <c r="AC25" t="n">
-        <v>955.3864377270839</v>
+        <v>1258.173598563053</v>
       </c>
       <c r="AD25" t="n">
-        <v>771929.1289516832</v>
+        <v>1016573.829872831</v>
       </c>
       <c r="AE25" t="n">
-        <v>1056187.489341374</v>
+        <v>1390921.162104163</v>
       </c>
       <c r="AF25" t="n">
         <v>3.280651199594833e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>955386.4377270839</v>
+        <v>1258173.598563052</v>
       </c>
     </row>
     <row r="26">
@@ -8821,28 +8821,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>772.7842976276866</v>
+        <v>1017.428998548834</v>
       </c>
       <c r="AB26" t="n">
-        <v>1057.357568851261</v>
+        <v>1392.09124161405</v>
       </c>
       <c r="AC26" t="n">
-        <v>956.4448464907645</v>
+        <v>1259.232007326733</v>
       </c>
       <c r="AD26" t="n">
-        <v>772784.2976276865</v>
+        <v>1017428.998548834</v>
       </c>
       <c r="AE26" t="n">
-        <v>1057357.568851261</v>
+        <v>1392091.24161405</v>
       </c>
       <c r="AF26" t="n">
         <v>3.28125389487152e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>956444.8464907644</v>
+        <v>1259232.007326733</v>
       </c>
     </row>
   </sheetData>
@@ -9118,28 +9118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1209.236059685306</v>
+        <v>1557.667498251637</v>
       </c>
       <c r="AB2" t="n">
-        <v>1654.530124591296</v>
+        <v>2131.269390547938</v>
       </c>
       <c r="AC2" t="n">
-        <v>1496.624091647916</v>
+        <v>1927.864031169419</v>
       </c>
       <c r="AD2" t="n">
-        <v>1209236.059685306</v>
+        <v>1557667.498251637</v>
       </c>
       <c r="AE2" t="n">
-        <v>1654530.124591296</v>
+        <v>2131269.390547938</v>
       </c>
       <c r="AF2" t="n">
         <v>2.46004804789171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.81770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1496624.091647916</v>
+        <v>1927864.031169419</v>
       </c>
     </row>
     <row r="3">
@@ -9224,28 +9224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>938.2966069856761</v>
+        <v>1228.610585232577</v>
       </c>
       <c r="AB3" t="n">
-        <v>1283.81881240261</v>
+        <v>1681.039205188814</v>
       </c>
       <c r="AC3" t="n">
-        <v>1161.292946797924</v>
+        <v>1520.603182798936</v>
       </c>
       <c r="AD3" t="n">
-        <v>938296.6069856761</v>
+        <v>1228610.585232577</v>
       </c>
       <c r="AE3" t="n">
-        <v>1283818.81240261</v>
+        <v>1681039.205188814</v>
       </c>
       <c r="AF3" t="n">
         <v>3.023951941777674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1161292.946797924</v>
+        <v>1520603.182798936</v>
       </c>
     </row>
     <row r="4">
@@ -9330,28 +9330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>871.1891453357161</v>
+        <v>1132.46248716215</v>
       </c>
       <c r="AB4" t="n">
-        <v>1191.999422800873</v>
+        <v>1549.485135654137</v>
       </c>
       <c r="AC4" t="n">
-        <v>1078.236670870454</v>
+        <v>1401.604449023352</v>
       </c>
       <c r="AD4" t="n">
-        <v>871189.1453357162</v>
+        <v>1132462.48716215</v>
       </c>
       <c r="AE4" t="n">
-        <v>1191999.422800873</v>
+        <v>1549485.135654137</v>
       </c>
       <c r="AF4" t="n">
         <v>3.231945495901909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1078236.670870455</v>
+        <v>1401604.449023352</v>
       </c>
     </row>
     <row r="5">
@@ -9436,28 +9436,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>832.2596620608477</v>
+        <v>1083.852454737174</v>
       </c>
       <c r="AB5" t="n">
-        <v>1138.734386336607</v>
+        <v>1482.974744767006</v>
       </c>
       <c r="AC5" t="n">
-        <v>1030.05517472839</v>
+        <v>1341.441716494569</v>
       </c>
       <c r="AD5" t="n">
-        <v>832259.6620608477</v>
+        <v>1083852.454737173</v>
       </c>
       <c r="AE5" t="n">
-        <v>1138734.386336607</v>
+        <v>1482974.744767006</v>
       </c>
       <c r="AF5" t="n">
         <v>3.345636328910844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1030055.17472839</v>
+        <v>1341441.716494569</v>
       </c>
     </row>
     <row r="6">
@@ -9542,28 +9542,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>809.2514436656271</v>
+        <v>1051.197852610626</v>
       </c>
       <c r="AB6" t="n">
-        <v>1107.25352687731</v>
+        <v>1438.295277518092</v>
       </c>
       <c r="AC6" t="n">
-        <v>1001.578804312224</v>
+        <v>1301.026394891865</v>
       </c>
       <c r="AD6" t="n">
-        <v>809251.4436656272</v>
+        <v>1051197.852610626</v>
       </c>
       <c r="AE6" t="n">
-        <v>1107253.52687731</v>
+        <v>1438295.277518092</v>
       </c>
       <c r="AF6" t="n">
         <v>3.424112019908891e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1001578.804312224</v>
+        <v>1301026.394891865</v>
       </c>
     </row>
     <row r="7">
@@ -9648,28 +9648,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>791.6853572868096</v>
+        <v>1043.311304352059</v>
       </c>
       <c r="AB7" t="n">
-        <v>1083.218832532775</v>
+        <v>1427.504554260767</v>
       </c>
       <c r="AC7" t="n">
-        <v>979.8379474630259</v>
+        <v>1291.265523117344</v>
       </c>
       <c r="AD7" t="n">
-        <v>791685.3572868096</v>
+        <v>1043311.304352059</v>
       </c>
       <c r="AE7" t="n">
-        <v>1083218.832532775</v>
+        <v>1427504.554260767</v>
       </c>
       <c r="AF7" t="n">
         <v>3.467966082525446e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>979837.9474630259</v>
+        <v>1291265.523117344</v>
       </c>
     </row>
     <row r="8">
@@ -9754,28 +9754,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>785.6940602953623</v>
+        <v>1027.60630382158</v>
       </c>
       <c r="AB8" t="n">
-        <v>1075.021275671708</v>
+        <v>1406.016279679242</v>
       </c>
       <c r="AC8" t="n">
-        <v>972.4227539234362</v>
+        <v>1271.828059302897</v>
       </c>
       <c r="AD8" t="n">
-        <v>785694.0602953623</v>
+        <v>1027606.30382158</v>
       </c>
       <c r="AE8" t="n">
-        <v>1075021.275671708</v>
+        <v>1406016.279679242</v>
       </c>
       <c r="AF8" t="n">
         <v>3.497048250365899e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.11458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>972422.7539234362</v>
+        <v>1271828.059302897</v>
       </c>
     </row>
     <row r="9">
@@ -9860,28 +9860,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>770.2325315398786</v>
+        <v>1012.212094873801</v>
       </c>
       <c r="AB9" t="n">
-        <v>1053.866129913948</v>
+        <v>1384.953243852323</v>
       </c>
       <c r="AC9" t="n">
-        <v>953.2866255853627</v>
+        <v>1252.775250053143</v>
       </c>
       <c r="AD9" t="n">
-        <v>770232.5315398786</v>
+        <v>1012212.094873801</v>
       </c>
       <c r="AE9" t="n">
-        <v>1053866.129913948</v>
+        <v>1384953.243852323</v>
       </c>
       <c r="AF9" t="n">
         <v>3.527713121218077e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>953286.6255853627</v>
+        <v>1252775.250053143</v>
       </c>
     </row>
     <row r="10">
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>766.4948833392834</v>
+        <v>1008.37296144672</v>
       </c>
       <c r="AB10" t="n">
-        <v>1048.752114752492</v>
+        <v>1379.700372126778</v>
       </c>
       <c r="AC10" t="n">
-        <v>948.6606848533514</v>
+        <v>1248.023705032632</v>
       </c>
       <c r="AD10" t="n">
-        <v>766494.8833392834</v>
+        <v>1008372.96144672</v>
       </c>
       <c r="AE10" t="n">
-        <v>1048752.114752492</v>
+        <v>1379700.372126778</v>
       </c>
       <c r="AF10" t="n">
         <v>3.541627718529495e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.48958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>948660.6848533514</v>
+        <v>1248023.705032632</v>
       </c>
     </row>
     <row r="11">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>761.1957794057976</v>
+        <v>993.4616392006881</v>
       </c>
       <c r="AB11" t="n">
-        <v>1041.501646970731</v>
+        <v>1359.298043188648</v>
       </c>
       <c r="AC11" t="n">
-        <v>942.1021915405859</v>
+        <v>1229.568545733508</v>
       </c>
       <c r="AD11" t="n">
-        <v>761195.7794057976</v>
+        <v>993461.6392006881</v>
       </c>
       <c r="AE11" t="n">
-        <v>1041501.646970731</v>
+        <v>1359298.043188648</v>
       </c>
       <c r="AF11" t="n">
         <v>3.566357453087703e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.15104166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>942102.1915405858</v>
+        <v>1229568.545733508</v>
       </c>
     </row>
     <row r="12">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>757.7415453236299</v>
+        <v>990.0074051185204</v>
       </c>
       <c r="AB12" t="n">
-        <v>1036.775411509456</v>
+        <v>1354.571807727373</v>
       </c>
       <c r="AC12" t="n">
-        <v>937.8270213584225</v>
+        <v>1225.293375551345</v>
       </c>
       <c r="AD12" t="n">
-        <v>757741.5453236299</v>
+        <v>990007.4051185204</v>
       </c>
       <c r="AE12" t="n">
-        <v>1036775.411509456</v>
+        <v>1354571.807727373</v>
       </c>
       <c r="AF12" t="n">
         <v>3.576974752458027e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.02083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>937827.0213584225</v>
+        <v>1225293.375551345</v>
       </c>
     </row>
     <row r="13">
@@ -10284,28 +10284,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>744.7702491127529</v>
+        <v>986.7156470278943</v>
       </c>
       <c r="AB13" t="n">
-        <v>1019.027511780533</v>
+        <v>1350.067879085661</v>
       </c>
       <c r="AC13" t="n">
-        <v>921.7729562702939</v>
+        <v>1221.219295537894</v>
       </c>
       <c r="AD13" t="n">
-        <v>744770.249112753</v>
+        <v>986715.6470278943</v>
       </c>
       <c r="AE13" t="n">
-        <v>1019027.511780533</v>
+        <v>1350067.879085661</v>
       </c>
       <c r="AF13" t="n">
         <v>3.584426645804901e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.91666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>921772.9562702939</v>
+        <v>1221219.295537894</v>
       </c>
     </row>
     <row r="14">
@@ -10390,28 +10390,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>740.7914097197661</v>
+        <v>982.7368076349076</v>
       </c>
       <c r="AB14" t="n">
-        <v>1013.583488189043</v>
+        <v>1344.623855494171</v>
       </c>
       <c r="AC14" t="n">
-        <v>916.8485026496406</v>
+        <v>1216.294841917241</v>
       </c>
       <c r="AD14" t="n">
-        <v>740791.4097197661</v>
+        <v>982736.8076349075</v>
       </c>
       <c r="AE14" t="n">
-        <v>1013583.488189043</v>
+        <v>1344623.855494171</v>
       </c>
       <c r="AF14" t="n">
         <v>3.5976817835281e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.734375</v>
       </c>
       <c r="AH14" t="n">
-        <v>916848.5026496407</v>
+        <v>1216294.841917241</v>
       </c>
     </row>
     <row r="15">
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>737.5454267931535</v>
+        <v>979.4908247082948</v>
       </c>
       <c r="AB15" t="n">
-        <v>1009.142191146192</v>
+        <v>1340.18255845132</v>
       </c>
       <c r="AC15" t="n">
-        <v>912.8310767631593</v>
+        <v>1212.277416030759</v>
       </c>
       <c r="AD15" t="n">
-        <v>737545.4267931535</v>
+        <v>979490.8247082948</v>
       </c>
       <c r="AE15" t="n">
-        <v>1009142.191146192</v>
+        <v>1340182.55845132</v>
       </c>
       <c r="AF15" t="n">
         <v>3.607573677351383e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>912831.0767631594</v>
+        <v>1212277.416030759</v>
       </c>
     </row>
     <row r="16">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>733.5973588033437</v>
+        <v>965.8290531794531</v>
       </c>
       <c r="AB16" t="n">
-        <v>1003.740270346067</v>
+        <v>1321.489919930736</v>
       </c>
       <c r="AC16" t="n">
-        <v>907.9447077025551</v>
+        <v>1195.368776695297</v>
       </c>
       <c r="AD16" t="n">
-        <v>733597.3588033437</v>
+        <v>965829.0531794531</v>
       </c>
       <c r="AE16" t="n">
-        <v>1003740.270346067</v>
+        <v>1321489.919930736</v>
       </c>
       <c r="AF16" t="n">
         <v>3.615685030286476e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>907944.7077025551</v>
+        <v>1195368.776695297</v>
       </c>
     </row>
     <row r="17">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>731.7681183059696</v>
+        <v>963.9998126820789</v>
       </c>
       <c r="AB17" t="n">
-        <v>1001.237422797165</v>
+        <v>1318.987072381834</v>
       </c>
       <c r="AC17" t="n">
-        <v>905.6807284109514</v>
+        <v>1193.104797403694</v>
       </c>
       <c r="AD17" t="n">
-        <v>731768.1183059695</v>
+        <v>963999.8126820789</v>
       </c>
       <c r="AE17" t="n">
-        <v>1001237.422797165</v>
+        <v>1318987.072381834</v>
       </c>
       <c r="AF17" t="n">
         <v>3.615091516657079e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>905680.7284109513</v>
+        <v>1193104.797403694</v>
       </c>
     </row>
     <row r="18">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>728.7098901923816</v>
+        <v>960.9415845684911</v>
       </c>
       <c r="AB18" t="n">
-        <v>997.0530201726515</v>
+        <v>1314.80266975732</v>
       </c>
       <c r="AC18" t="n">
-        <v>901.8956793000758</v>
+        <v>1189.319748292818</v>
       </c>
       <c r="AD18" t="n">
-        <v>728709.8901923817</v>
+        <v>960941.5845684911</v>
       </c>
       <c r="AE18" t="n">
-        <v>997053.0201726515</v>
+        <v>1314802.669757321</v>
       </c>
       <c r="AF18" t="n">
         <v>3.62702773520384e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>48</v>
+        <v>47.34375</v>
       </c>
       <c r="AH18" t="n">
-        <v>901895.6793000759</v>
+        <v>1189319.748292818</v>
       </c>
     </row>
   </sheetData>
@@ -11111,28 +11111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>771.2845447486675</v>
+        <v>1042.491018944394</v>
       </c>
       <c r="AB2" t="n">
-        <v>1055.30554079776</v>
+        <v>1426.382203577562</v>
       </c>
       <c r="AC2" t="n">
-        <v>954.5886611146499</v>
+        <v>1290.250288008115</v>
       </c>
       <c r="AD2" t="n">
-        <v>771284.5447486675</v>
+        <v>1042491.018944394</v>
       </c>
       <c r="AE2" t="n">
-        <v>1055305.54079776</v>
+        <v>1426382.203577562</v>
       </c>
       <c r="AF2" t="n">
         <v>4.362348467883741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.94791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>954588.6611146498</v>
+        <v>1290250.288008115</v>
       </c>
     </row>
     <row r="3">
@@ -11217,28 +11217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>680.6961646493168</v>
+        <v>923.8703590446448</v>
       </c>
       <c r="AB3" t="n">
-        <v>931.3585226685556</v>
+        <v>1264.080183528549</v>
       </c>
       <c r="AC3" t="n">
-        <v>842.4709724349642</v>
+        <v>1143.438144960264</v>
       </c>
       <c r="AD3" t="n">
-        <v>680696.1646493168</v>
+        <v>923870.3590446449</v>
       </c>
       <c r="AE3" t="n">
-        <v>931358.5226685556</v>
+        <v>1264080.183528549</v>
       </c>
       <c r="AF3" t="n">
         <v>4.829391198372254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.63541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>842470.9724349643</v>
+        <v>1143438.144960264</v>
       </c>
     </row>
     <row r="4">
@@ -11323,28 +11323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>645.4976185111576</v>
+        <v>879.316331166759</v>
       </c>
       <c r="AB4" t="n">
-        <v>883.1983189920653</v>
+        <v>1203.11939700104</v>
       </c>
       <c r="AC4" t="n">
-        <v>798.9071110040878</v>
+        <v>1088.295370339939</v>
       </c>
       <c r="AD4" t="n">
-        <v>645497.6185111576</v>
+        <v>879316.331166759</v>
       </c>
       <c r="AE4" t="n">
-        <v>883198.3189920653</v>
+        <v>1203119.39700104</v>
       </c>
       <c r="AF4" t="n">
         <v>4.999216550707947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>798907.1110040878</v>
+        <v>1088295.370339939</v>
       </c>
     </row>
     <row r="5">
@@ -11429,28 +11429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>635.2626489935294</v>
+        <v>859.6927255204806</v>
       </c>
       <c r="AB5" t="n">
-        <v>869.1943821630588</v>
+        <v>1176.269514023421</v>
       </c>
       <c r="AC5" t="n">
-        <v>786.239690251393</v>
+        <v>1064.008002509657</v>
       </c>
       <c r="AD5" t="n">
-        <v>635262.6489935294</v>
+        <v>859692.7255204807</v>
       </c>
       <c r="AE5" t="n">
-        <v>869194.3821630587</v>
+        <v>1176269.514023421</v>
       </c>
       <c r="AF5" t="n">
         <v>5.079112705627937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>786239.690251393</v>
+        <v>1064008.002509657</v>
       </c>
     </row>
     <row r="6">
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>619.5339288900234</v>
+        <v>844.031325224679</v>
       </c>
       <c r="AB6" t="n">
-        <v>847.6736534152841</v>
+        <v>1154.840895206488</v>
       </c>
       <c r="AC6" t="n">
-        <v>766.7728696507735</v>
+        <v>1044.624500997356</v>
       </c>
       <c r="AD6" t="n">
-        <v>619533.9288900234</v>
+        <v>844031.325224679</v>
       </c>
       <c r="AE6" t="n">
-        <v>847673.6534152841</v>
+        <v>1154840.895206488</v>
       </c>
       <c r="AF6" t="n">
         <v>5.120073291963647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.82291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>766772.8696507735</v>
+        <v>1044624.500997356</v>
       </c>
     </row>
   </sheetData>
@@ -11832,28 +11832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>910.6799897700897</v>
+        <v>1204.571332915374</v>
       </c>
       <c r="AB2" t="n">
-        <v>1246.032538369081</v>
+        <v>1648.147639631453</v>
       </c>
       <c r="AC2" t="n">
-        <v>1127.112941724786</v>
+        <v>1490.850742094767</v>
       </c>
       <c r="AD2" t="n">
-        <v>910679.9897700897</v>
+        <v>1204571.332915374</v>
       </c>
       <c r="AE2" t="n">
-        <v>1246032.538369081</v>
+        <v>1648147.639631453</v>
       </c>
       <c r="AF2" t="n">
         <v>3.487798178678332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.50520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1127112.941724786</v>
+        <v>1490850.742094767</v>
       </c>
     </row>
     <row r="3">
@@ -11938,28 +11938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>765.0099815092343</v>
+        <v>1020.971044140603</v>
       </c>
       <c r="AB3" t="n">
-        <v>1046.720406559374</v>
+        <v>1396.937624656731</v>
       </c>
       <c r="AC3" t="n">
-        <v>946.8228800386636</v>
+        <v>1263.615858373762</v>
       </c>
       <c r="AD3" t="n">
-        <v>765009.9815092343</v>
+        <v>1020971.044140603</v>
       </c>
       <c r="AE3" t="n">
-        <v>1046720.406559374</v>
+        <v>1396937.624656731</v>
       </c>
       <c r="AF3" t="n">
         <v>3.998911466798215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.90104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>946822.8800386636</v>
+        <v>1263615.858373762</v>
       </c>
     </row>
     <row r="4">
@@ -12044,28 +12044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>724.1389932669039</v>
+        <v>970.6174857697933</v>
       </c>
       <c r="AB4" t="n">
-        <v>990.7989173454728</v>
+        <v>1328.041664651576</v>
       </c>
       <c r="AC4" t="n">
-        <v>896.2384592690343</v>
+        <v>1201.295232095412</v>
       </c>
       <c r="AD4" t="n">
-        <v>724138.9932669039</v>
+        <v>970617.4857697934</v>
       </c>
       <c r="AE4" t="n">
-        <v>990798.9173454727</v>
+        <v>1328041.664651576</v>
       </c>
       <c r="AF4" t="n">
         <v>4.184640406492433e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>896238.4592690342</v>
+        <v>1201295.232095412</v>
       </c>
     </row>
     <row r="5">
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>702.2550884200346</v>
+        <v>939.1836909867407</v>
       </c>
       <c r="AB5" t="n">
-        <v>960.8563932842421</v>
+        <v>1285.03255986825</v>
       </c>
       <c r="AC5" t="n">
-        <v>869.1536076796111</v>
+        <v>1162.390855908949</v>
       </c>
       <c r="AD5" t="n">
-        <v>702255.0884200345</v>
+        <v>939183.6909867406</v>
       </c>
       <c r="AE5" t="n">
-        <v>960856.3932842421</v>
+        <v>1285032.559868251</v>
       </c>
       <c r="AF5" t="n">
         <v>4.283164427720782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>869153.6076796111</v>
+        <v>1162390.855908949</v>
       </c>
     </row>
     <row r="6">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>684.4296035333338</v>
+        <v>921.4255259077441</v>
       </c>
       <c r="AB6" t="n">
-        <v>936.4667784573664</v>
+        <v>1260.735054972216</v>
       </c>
       <c r="AC6" t="n">
-        <v>847.0917034607731</v>
+        <v>1140.41227077843</v>
       </c>
       <c r="AD6" t="n">
-        <v>684429.6035333337</v>
+        <v>921425.5259077442</v>
       </c>
       <c r="AE6" t="n">
-        <v>936466.7784573664</v>
+        <v>1260735.054972216</v>
       </c>
       <c r="AF6" t="n">
         <v>4.338085989716197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>847091.7034607731</v>
+        <v>1140412.27077843</v>
       </c>
     </row>
     <row r="7">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>677.871494180869</v>
+        <v>905.3516920378771</v>
       </c>
       <c r="AB7" t="n">
-        <v>927.4936839179591</v>
+        <v>1238.742126343961</v>
       </c>
       <c r="AC7" t="n">
-        <v>838.9749884703895</v>
+        <v>1120.518316391187</v>
       </c>
       <c r="AD7" t="n">
-        <v>677871.4941808691</v>
+        <v>905351.6920378772</v>
       </c>
       <c r="AE7" t="n">
-        <v>927493.6839179591</v>
+        <v>1238742.126343961</v>
       </c>
       <c r="AF7" t="n">
         <v>4.371246178090787e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>838974.9884703895</v>
+        <v>1120518.316391187</v>
       </c>
     </row>
     <row r="8">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>672.2719732222031</v>
+        <v>899.7521710792112</v>
       </c>
       <c r="AB8" t="n">
-        <v>919.8321723088824</v>
+        <v>1231.080614734885</v>
       </c>
       <c r="AC8" t="n">
-        <v>832.0446807762841</v>
+        <v>1113.588008697081</v>
       </c>
       <c r="AD8" t="n">
-        <v>672271.9732222031</v>
+        <v>899752.1710792112</v>
       </c>
       <c r="AE8" t="n">
-        <v>919832.1723088823</v>
+        <v>1231080.614734885</v>
       </c>
       <c r="AF8" t="n">
         <v>4.397949695171286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>832044.6807762841</v>
+        <v>1113588.008697081</v>
       </c>
     </row>
     <row r="9">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>656.7314977193777</v>
+        <v>893.6932546750074</v>
       </c>
       <c r="AB9" t="n">
-        <v>898.5690081285245</v>
+        <v>1222.790538010127</v>
       </c>
       <c r="AC9" t="n">
-        <v>812.8108431422613</v>
+        <v>1106.089125259738</v>
       </c>
       <c r="AD9" t="n">
-        <v>656731.4977193776</v>
+        <v>893693.2546750074</v>
       </c>
       <c r="AE9" t="n">
-        <v>898569.0081285245</v>
+        <v>1222790.538010127</v>
       </c>
       <c r="AF9" t="n">
         <v>4.420667612687531e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>812810.8431422613</v>
+        <v>1106089.125259738</v>
       </c>
     </row>
     <row r="10">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>655.7116484846107</v>
+        <v>883.2591661493234</v>
       </c>
       <c r="AB10" t="n">
-        <v>897.1736054129435</v>
+        <v>1208.514157769787</v>
       </c>
       <c r="AC10" t="n">
-        <v>811.5486157033953</v>
+        <v>1093.175262712512</v>
       </c>
       <c r="AD10" t="n">
-        <v>655711.6484846107</v>
+        <v>883259.1661493233</v>
       </c>
       <c r="AE10" t="n">
-        <v>897173.6054129435</v>
+        <v>1208514.157769787</v>
       </c>
       <c r="AF10" t="n">
         <v>4.432146139432581e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>47</v>
+        <v>46.82291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>811548.6157033953</v>
+        <v>1093175.262712512</v>
       </c>
     </row>
   </sheetData>
@@ -12977,28 +12977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>689.5244103824456</v>
+        <v>929.9894135453476</v>
       </c>
       <c r="AB2" t="n">
-        <v>943.4377179553362</v>
+        <v>1272.452543850043</v>
       </c>
       <c r="AC2" t="n">
-        <v>853.3973462768319</v>
+        <v>1151.011458963356</v>
       </c>
       <c r="AD2" t="n">
-        <v>689524.4103824456</v>
+        <v>929989.4135453476</v>
       </c>
       <c r="AE2" t="n">
-        <v>943437.7179553362</v>
+        <v>1272452.543850043</v>
       </c>
       <c r="AF2" t="n">
         <v>5.277963709582513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.00520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>853397.3462768318</v>
+        <v>1151011.458963356</v>
       </c>
     </row>
     <row r="3">
@@ -13083,28 +13083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.7414094226265</v>
+        <v>843.7039262031743</v>
       </c>
       <c r="AB3" t="n">
-        <v>850.6940256671598</v>
+        <v>1154.39293342144</v>
       </c>
       <c r="AC3" t="n">
-        <v>769.5049818140491</v>
+        <v>1044.219292056355</v>
       </c>
       <c r="AD3" t="n">
-        <v>621741.4094226265</v>
+        <v>843703.9262031743</v>
       </c>
       <c r="AE3" t="n">
-        <v>850694.0256671598</v>
+        <v>1154392.93342144</v>
       </c>
       <c r="AF3" t="n">
         <v>5.706311322630747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>769504.9818140491</v>
+        <v>1044219.292056355</v>
       </c>
     </row>
     <row r="4">
@@ -13189,28 +13189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>600.4966261140713</v>
+        <v>822.4249774758383</v>
       </c>
       <c r="AB4" t="n">
-        <v>821.625975890703</v>
+        <v>1125.278137011735</v>
       </c>
       <c r="AC4" t="n">
-        <v>743.2111459109932</v>
+        <v>1017.883170953119</v>
       </c>
       <c r="AD4" t="n">
-        <v>600496.6261140713</v>
+        <v>822424.9774758383</v>
       </c>
       <c r="AE4" t="n">
-        <v>821625.975890703</v>
+        <v>1125278.137011735</v>
       </c>
       <c r="AF4" t="n">
         <v>5.829660253781728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.08333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>743211.1459109932</v>
+        <v>1017883.170953119</v>
       </c>
     </row>
     <row r="5">
@@ -13295,28 +13295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>591.7472557438243</v>
+        <v>822.9258392669113</v>
       </c>
       <c r="AB5" t="n">
-        <v>809.6547013551525</v>
+        <v>1125.963438210744</v>
       </c>
       <c r="AC5" t="n">
-        <v>732.3823930153264</v>
+        <v>1018.503067967521</v>
       </c>
       <c r="AD5" t="n">
-        <v>591747.2557438243</v>
+        <v>822925.8392669114</v>
       </c>
       <c r="AE5" t="n">
-        <v>809654.7013551525</v>
+        <v>1125963.438210744</v>
       </c>
       <c r="AF5" t="n">
         <v>5.843998249197567e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.97916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>732382.3930153265</v>
+        <v>1018503.067967521</v>
       </c>
     </row>
   </sheetData>
@@ -13592,28 +13592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1268.72500634016</v>
+        <v>1627.887037359188</v>
       </c>
       <c r="AB2" t="n">
-        <v>1735.925525871567</v>
+        <v>2227.346861822319</v>
       </c>
       <c r="AC2" t="n">
-        <v>1570.251230069161</v>
+        <v>2014.77200343095</v>
       </c>
       <c r="AD2" t="n">
-        <v>1268725.00634016</v>
+        <v>1627887.037359188</v>
       </c>
       <c r="AE2" t="n">
-        <v>1735925.525871567</v>
+        <v>2227346.861822319</v>
       </c>
       <c r="AF2" t="n">
         <v>2.332019384473927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1570251.230069161</v>
+        <v>2014772.00343095</v>
       </c>
     </row>
     <row r="3">
@@ -13698,28 +13698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>971.0145847236423</v>
+        <v>1262.214114850884</v>
       </c>
       <c r="AB3" t="n">
-        <v>1328.584992959002</v>
+        <v>1727.01703689568</v>
       </c>
       <c r="AC3" t="n">
-        <v>1201.786705911743</v>
+        <v>1562.19295477799</v>
       </c>
       <c r="AD3" t="n">
-        <v>971014.5847236423</v>
+        <v>1262214.114850884</v>
       </c>
       <c r="AE3" t="n">
-        <v>1328584.992959002</v>
+        <v>1727017.03689568</v>
       </c>
       <c r="AF3" t="n">
         <v>2.901220539495504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.76041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1201786.705911743</v>
+        <v>1562192.95477799</v>
       </c>
     </row>
     <row r="4">
@@ -13804,28 +13804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>888.3603852535342</v>
+        <v>1160.142057983122</v>
       </c>
       <c r="AB4" t="n">
-        <v>1215.493870798072</v>
+        <v>1587.357545587872</v>
       </c>
       <c r="AC4" t="n">
-        <v>1099.488841725466</v>
+        <v>1435.862369307273</v>
       </c>
       <c r="AD4" t="n">
-        <v>888360.3852535342</v>
+        <v>1160142.057983122</v>
       </c>
       <c r="AE4" t="n">
-        <v>1215493.870798072</v>
+        <v>1587357.545587872</v>
       </c>
       <c r="AF4" t="n">
         <v>3.120277716623083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.69791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1099488.841725466</v>
+        <v>1435862.369307273</v>
       </c>
     </row>
     <row r="5">
@@ -13910,28 +13910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>847.6598703103059</v>
+        <v>1109.732614341067</v>
       </c>
       <c r="AB5" t="n">
-        <v>1159.805630672754</v>
+        <v>1518.385120889114</v>
       </c>
       <c r="AC5" t="n">
-        <v>1049.115409078772</v>
+        <v>1373.472576018358</v>
       </c>
       <c r="AD5" t="n">
-        <v>847659.8703103059</v>
+        <v>1109732.614341067</v>
       </c>
       <c r="AE5" t="n">
-        <v>1159805.630672754</v>
+        <v>1518385.120889114</v>
       </c>
       <c r="AF5" t="n">
         <v>3.238880060173651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.74479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1049115.409078772</v>
+        <v>1373472.576018358</v>
       </c>
     </row>
     <row r="6">
@@ -14016,28 +14016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>825.3184147149957</v>
+        <v>1077.716395465711</v>
       </c>
       <c r="AB6" t="n">
-        <v>1129.237065491792</v>
+        <v>1474.579117767961</v>
       </c>
       <c r="AC6" t="n">
-        <v>1021.46426485543</v>
+        <v>1333.847356352976</v>
       </c>
       <c r="AD6" t="n">
-        <v>825318.4147149957</v>
+        <v>1077716.395465711</v>
       </c>
       <c r="AE6" t="n">
-        <v>1129237.065491792</v>
+        <v>1474579.117767961</v>
       </c>
       <c r="AF6" t="n">
         <v>3.310118689750687e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1021464.26485543</v>
+        <v>1333847.356352977</v>
       </c>
     </row>
     <row r="7">
@@ -14122,28 +14122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>807.0464419011178</v>
+        <v>1059.410257233052</v>
       </c>
       <c r="AB7" t="n">
-        <v>1104.236546185296</v>
+        <v>1449.531851828217</v>
       </c>
       <c r="AC7" t="n">
-        <v>998.8497600230966</v>
+        <v>1311.190566320463</v>
       </c>
       <c r="AD7" t="n">
-        <v>807046.4419011178</v>
+        <v>1059410.257233052</v>
       </c>
       <c r="AE7" t="n">
-        <v>1104236.546185296</v>
+        <v>1449531.851828217</v>
       </c>
       <c r="AF7" t="n">
         <v>3.357096286490738e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.921875</v>
       </c>
       <c r="AH7" t="n">
-        <v>998849.7600230966</v>
+        <v>1311190.566320463</v>
       </c>
     </row>
     <row r="8">
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>799.6726850611018</v>
+        <v>1042.294417305286</v>
       </c>
       <c r="AB8" t="n">
-        <v>1094.147446769593</v>
+        <v>1426.113204541482</v>
       </c>
       <c r="AC8" t="n">
-        <v>989.7235500954888</v>
+        <v>1290.006961862496</v>
       </c>
       <c r="AD8" t="n">
-        <v>799672.6850611018</v>
+        <v>1042294.417305286</v>
       </c>
       <c r="AE8" t="n">
-        <v>1094147.446769593</v>
+        <v>1426113.204541482</v>
       </c>
       <c r="AF8" t="n">
         <v>3.395321892605245e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.34895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>989723.5500954888</v>
+        <v>1290006.961862496</v>
       </c>
     </row>
     <row r="9">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>794.7148544579286</v>
+        <v>1037.336586702113</v>
       </c>
       <c r="AB9" t="n">
-        <v>1087.363924214282</v>
+        <v>1419.329681986171</v>
       </c>
       <c r="AC9" t="n">
-        <v>983.5874374121228</v>
+        <v>1283.87084917913</v>
       </c>
       <c r="AD9" t="n">
-        <v>794714.8544579286</v>
+        <v>1037336.586702112</v>
       </c>
       <c r="AE9" t="n">
-        <v>1087363.924214282</v>
+        <v>1419329.681986171</v>
       </c>
       <c r="AF9" t="n">
         <v>3.417137516296857e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.03645833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>983587.4374121227</v>
+        <v>1283870.84917913</v>
       </c>
     </row>
     <row r="10">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>780.6826938844848</v>
+        <v>1023.371745936373</v>
       </c>
       <c r="AB10" t="n">
-        <v>1068.164503062463</v>
+        <v>1400.222370765192</v>
       </c>
       <c r="AC10" t="n">
-        <v>966.2203820684762</v>
+        <v>1266.587112923802</v>
       </c>
       <c r="AD10" t="n">
-        <v>780682.6938844848</v>
+        <v>1023371.745936373</v>
       </c>
       <c r="AE10" t="n">
-        <v>1068164.503062463</v>
+        <v>1400222.370765192</v>
       </c>
       <c r="AF10" t="n">
         <v>3.434512791803452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.80208333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>966220.3820684762</v>
+        <v>1266587.112923802</v>
       </c>
     </row>
     <row r="11">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>776.4364545740408</v>
+        <v>1019.125506625929</v>
       </c>
       <c r="AB11" t="n">
-        <v>1062.354611107056</v>
+        <v>1394.412478809786</v>
       </c>
       <c r="AC11" t="n">
-        <v>960.9649780470592</v>
+        <v>1261.331708902385</v>
       </c>
       <c r="AD11" t="n">
-        <v>776436.4545740408</v>
+        <v>1019125.506625929</v>
       </c>
       <c r="AE11" t="n">
-        <v>1062354.611107056</v>
+        <v>1394412.478809786</v>
       </c>
       <c r="AF11" t="n">
         <v>3.454140417838678e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>960964.9780470592</v>
+        <v>1261331.708902385</v>
       </c>
     </row>
     <row r="12">
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>772.2864819551053</v>
+        <v>1014.874048780508</v>
       </c>
       <c r="AB12" t="n">
-        <v>1056.676435485958</v>
+        <v>1388.595446624599</v>
       </c>
       <c r="AC12" t="n">
-        <v>955.8287195378689</v>
+        <v>1256.069846104696</v>
       </c>
       <c r="AD12" t="n">
-        <v>772286.4819551053</v>
+        <v>1014874.048780508</v>
       </c>
       <c r="AE12" t="n">
-        <v>1056676.435485958</v>
+        <v>1388595.446624599</v>
       </c>
       <c r="AF12" t="n">
         <v>3.465788287715321e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>955828.7195378689</v>
+        <v>1256069.846104696</v>
       </c>
     </row>
     <row r="13">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>767.5593526618587</v>
+        <v>1000.506321625997</v>
       </c>
       <c r="AB13" t="n">
-        <v>1050.208568640712</v>
+        <v>1368.936888472409</v>
       </c>
       <c r="AC13" t="n">
-        <v>949.9781368266254</v>
+        <v>1238.287473151592</v>
       </c>
       <c r="AD13" t="n">
-        <v>767559.3526618588</v>
+        <v>1000506.321625997</v>
       </c>
       <c r="AE13" t="n">
-        <v>1050208.568640712</v>
+        <v>1368936.888472409</v>
       </c>
       <c r="AF13" t="n">
         <v>3.486316853962002e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.07291666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>949978.1368266253</v>
+        <v>1238287.473151592</v>
       </c>
     </row>
     <row r="14">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>754.654219557257</v>
+        <v>997.3091061903646</v>
       </c>
       <c r="AB14" t="n">
-        <v>1032.551196192705</v>
+        <v>1364.562317262187</v>
       </c>
       <c r="AC14" t="n">
-        <v>934.0059592227782</v>
+        <v>1234.330404877924</v>
       </c>
       <c r="AD14" t="n">
-        <v>754654.219557257</v>
+        <v>997309.1061903646</v>
       </c>
       <c r="AE14" t="n">
-        <v>1032551.196192705</v>
+        <v>1364562.317262187</v>
       </c>
       <c r="AF14" t="n">
         <v>3.496355902032477e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>934005.9592227782</v>
+        <v>1234330.404877924</v>
       </c>
     </row>
     <row r="15">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>751.7097164058853</v>
+        <v>994.364603038993</v>
       </c>
       <c r="AB15" t="n">
-        <v>1028.522397078687</v>
+        <v>1360.533518148169</v>
       </c>
       <c r="AC15" t="n">
-        <v>930.3616630417474</v>
+        <v>1230.686108696893</v>
       </c>
       <c r="AD15" t="n">
-        <v>751709.7164058853</v>
+        <v>994364.603038993</v>
       </c>
       <c r="AE15" t="n">
-        <v>1028522.397078687</v>
+        <v>1360533.518148169</v>
       </c>
       <c r="AF15" t="n">
         <v>3.496227196287984e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>930361.6630417474</v>
+        <v>1230686.108696893</v>
       </c>
     </row>
     <row r="16">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>749.4520876042078</v>
+        <v>992.1069742373154</v>
       </c>
       <c r="AB16" t="n">
-        <v>1025.433409752679</v>
+        <v>1357.444530822161</v>
       </c>
       <c r="AC16" t="n">
-        <v>927.567484330712</v>
+        <v>1227.891929985858</v>
       </c>
       <c r="AD16" t="n">
-        <v>749452.0876042078</v>
+        <v>992106.9742373154</v>
       </c>
       <c r="AE16" t="n">
-        <v>1025433.409752679</v>
+        <v>1357444.530822161</v>
       </c>
       <c r="AF16" t="n">
         <v>3.507488948931148e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>927567.484330712</v>
+        <v>1227891.929985858</v>
       </c>
     </row>
     <row r="17">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>746.0362111379586</v>
+        <v>988.6910977710661</v>
       </c>
       <c r="AB17" t="n">
-        <v>1020.759656873722</v>
+        <v>1352.770777943205</v>
       </c>
       <c r="AC17" t="n">
-        <v>923.33978786687</v>
+        <v>1223.664233522016</v>
       </c>
       <c r="AD17" t="n">
-        <v>746036.2111379586</v>
+        <v>988691.0977710661</v>
       </c>
       <c r="AE17" t="n">
-        <v>1020759.656873722</v>
+        <v>1352770.777943205</v>
       </c>
       <c r="AF17" t="n">
         <v>3.516047880939952e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH17" t="n">
-        <v>923339.7878668699</v>
+        <v>1223664.233522016</v>
       </c>
     </row>
     <row r="18">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>743.6710224026365</v>
+        <v>986.3259090357442</v>
       </c>
       <c r="AB18" t="n">
-        <v>1017.523501301292</v>
+        <v>1349.534622370774</v>
       </c>
       <c r="AC18" t="n">
-        <v>920.4124864402995</v>
+        <v>1220.736932095445</v>
       </c>
       <c r="AD18" t="n">
-        <v>743671.0224026365</v>
+        <v>986325.9090357441</v>
       </c>
       <c r="AE18" t="n">
-        <v>1017523.501301292</v>
+        <v>1349534.622370774</v>
       </c>
       <c r="AF18" t="n">
         <v>3.515661763706471e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH18" t="n">
-        <v>920412.4864402995</v>
+        <v>1220736.932095445</v>
       </c>
     </row>
     <row r="19">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>740.874731869014</v>
+        <v>983.5296185021217</v>
       </c>
       <c r="AB19" t="n">
-        <v>1013.697493229558</v>
+        <v>1345.70861429904</v>
       </c>
       <c r="AC19" t="n">
-        <v>916.9516272090957</v>
+        <v>1217.276072864242</v>
       </c>
       <c r="AD19" t="n">
-        <v>740874.731869014</v>
+        <v>983529.6185021217</v>
       </c>
       <c r="AE19" t="n">
-        <v>1013697.493229558</v>
+        <v>1345708.61429904</v>
       </c>
       <c r="AF19" t="n">
         <v>3.525893870393688e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>48</v>
+        <v>47.52604166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>916951.6272090958</v>
+        <v>1217276.072864242</v>
       </c>
     </row>
     <row r="20">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>740.6465480046662</v>
+        <v>983.3014346377738</v>
       </c>
       <c r="AB20" t="n">
-        <v>1013.385281999596</v>
+        <v>1345.396403069078</v>
       </c>
       <c r="AC20" t="n">
-        <v>916.6692129807299</v>
+        <v>1216.993658635876</v>
       </c>
       <c r="AD20" t="n">
-        <v>740646.5480046662</v>
+        <v>983301.4346377738</v>
       </c>
       <c r="AE20" t="n">
-        <v>1013385.281999596</v>
+        <v>1345396.403069078</v>
       </c>
       <c r="AF20" t="n">
         <v>3.526601751988401e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>48</v>
+        <v>47.52604166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>916669.2129807299</v>
+        <v>1216993.658635876</v>
       </c>
     </row>
   </sheetData>
@@ -15797,28 +15797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.0019375476703</v>
+        <v>874.7937643437454</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.2059093779437</v>
+        <v>1196.931421552226</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.1546787285765</v>
+        <v>1082.697966583082</v>
       </c>
       <c r="AD2" t="n">
-        <v>636001.9375476703</v>
+        <v>874793.7643437453</v>
       </c>
       <c r="AE2" t="n">
-        <v>870205.9093779437</v>
+        <v>1196931.421552226</v>
       </c>
       <c r="AF2" t="n">
         <v>5.959518098871905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.41666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>787154.6787285765</v>
+        <v>1082697.966583082</v>
       </c>
     </row>
     <row r="3">
@@ -15903,28 +15903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>583.1320901233814</v>
+        <v>803.5790456119802</v>
       </c>
       <c r="AB3" t="n">
-        <v>797.8670516789795</v>
+        <v>1099.49230161177</v>
       </c>
       <c r="AC3" t="n">
-        <v>721.7197400801771</v>
+        <v>994.5582994930787</v>
       </c>
       <c r="AD3" t="n">
-        <v>583132.0901233815</v>
+        <v>803579.0456119801</v>
       </c>
       <c r="AE3" t="n">
-        <v>797867.0516789794</v>
+        <v>1099492.301611769</v>
       </c>
       <c r="AF3" t="n">
         <v>6.346306534966471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>721719.7400801771</v>
+        <v>994558.2994930787</v>
       </c>
     </row>
     <row r="4">
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.9697483690397</v>
+        <v>804.4167038576385</v>
       </c>
       <c r="AB4" t="n">
-        <v>799.0131726455629</v>
+        <v>1100.638422578353</v>
       </c>
       <c r="AC4" t="n">
-        <v>722.7564768703007</v>
+        <v>995.5950362832024</v>
       </c>
       <c r="AD4" t="n">
-        <v>583969.7483690397</v>
+        <v>804416.7038576385</v>
       </c>
       <c r="AE4" t="n">
-        <v>799013.1726455629</v>
+        <v>1100638.422578353</v>
       </c>
       <c r="AF4" t="n">
         <v>6.355765721295059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>722756.4768703007</v>
+        <v>995595.0362832024</v>
       </c>
     </row>
   </sheetData>
@@ -16306,28 +16306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1055.762269057106</v>
+        <v>1372.04526327041</v>
       </c>
       <c r="AB2" t="n">
-        <v>1444.540513468007</v>
+        <v>1877.292859571572</v>
       </c>
       <c r="AC2" t="n">
-        <v>1306.675594287964</v>
+        <v>1698.126663851137</v>
       </c>
       <c r="AD2" t="n">
-        <v>1055762.269057106</v>
+        <v>1372045.26327041</v>
       </c>
       <c r="AE2" t="n">
-        <v>1444540.513468008</v>
+        <v>1877292.859571572</v>
       </c>
       <c r="AF2" t="n">
         <v>2.896395824572981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1306675.594287965</v>
+        <v>1698126.663851137</v>
       </c>
     </row>
     <row r="3">
@@ -16412,28 +16412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>856.6808251018308</v>
+        <v>1125.02160039717</v>
       </c>
       <c r="AB3" t="n">
-        <v>1172.148498994956</v>
+        <v>1539.304186113535</v>
       </c>
       <c r="AC3" t="n">
-        <v>1060.280291371627</v>
+        <v>1392.395155017853</v>
       </c>
       <c r="AD3" t="n">
-        <v>856680.8251018308</v>
+        <v>1125021.60039717</v>
       </c>
       <c r="AE3" t="n">
-        <v>1172148.498994956</v>
+        <v>1539304.186113535</v>
       </c>
       <c r="AF3" t="n">
         <v>3.438071751955243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.32291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1060280.291371627</v>
+        <v>1392395.155017853</v>
       </c>
     </row>
     <row r="4">
@@ -16518,28 +16518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.3199789994569</v>
+        <v>1047.518032146391</v>
       </c>
       <c r="AB4" t="n">
-        <v>1092.296614658871</v>
+        <v>1433.260384816704</v>
       </c>
       <c r="AC4" t="n">
-        <v>988.0493588037548</v>
+        <v>1296.472025283382</v>
       </c>
       <c r="AD4" t="n">
-        <v>798319.9789994569</v>
+        <v>1047518.032146391</v>
       </c>
       <c r="AE4" t="n">
-        <v>1092296.614658871</v>
+        <v>1433260.384816704</v>
       </c>
       <c r="AF4" t="n">
         <v>3.637345964583691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>988049.3588037548</v>
+        <v>1296472.025283382</v>
       </c>
     </row>
     <row r="5">
@@ -16624,28 +16624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>763.5614577322444</v>
+        <v>1012.792665268102</v>
       </c>
       <c r="AB5" t="n">
-        <v>1044.738472423337</v>
+        <v>1385.747605878764</v>
       </c>
       <c r="AC5" t="n">
-        <v>945.0300989149084</v>
+        <v>1253.493799282674</v>
       </c>
       <c r="AD5" t="n">
-        <v>763561.4577322444</v>
+        <v>1012792.665268102</v>
       </c>
       <c r="AE5" t="n">
-        <v>1044738.472423337</v>
+        <v>1385747.605878764</v>
       </c>
       <c r="AF5" t="n">
         <v>3.74418964101996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.86979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>945030.0989149085</v>
+        <v>1253493.799282674</v>
       </c>
     </row>
     <row r="6">
@@ -16730,28 +16730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>754.0820115621937</v>
+        <v>993.6916209255347</v>
       </c>
       <c r="AB6" t="n">
-        <v>1031.768275969824</v>
+        <v>1359.61271433066</v>
       </c>
       <c r="AC6" t="n">
-        <v>933.2977598071336</v>
+        <v>1229.853185103371</v>
       </c>
       <c r="AD6" t="n">
-        <v>754082.0115621936</v>
+        <v>993691.6209255347</v>
       </c>
       <c r="AE6" t="n">
-        <v>1031768.275969824</v>
+        <v>1359612.71433066</v>
       </c>
       <c r="AF6" t="n">
         <v>3.803921709792719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>933297.7598071336</v>
+        <v>1229853.185103371</v>
       </c>
     </row>
     <row r="7">
@@ -16836,28 +16836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>736.5761950070818</v>
+        <v>976.1516389516418</v>
       </c>
       <c r="AB7" t="n">
-        <v>1007.816045457</v>
+        <v>1335.613737184588</v>
       </c>
       <c r="AC7" t="n">
-        <v>911.6314965572867</v>
+        <v>1208.144636653344</v>
       </c>
       <c r="AD7" t="n">
-        <v>736576.1950070817</v>
+        <v>976151.6389516417</v>
       </c>
       <c r="AE7" t="n">
-        <v>1007816.045457</v>
+        <v>1335613.737184588</v>
       </c>
       <c r="AF7" t="n">
         <v>3.851822096275556e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.48958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>911631.4965572867</v>
+        <v>1208144.636653344</v>
       </c>
     </row>
     <row r="8">
@@ -16942,28 +16942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>730.3636630438225</v>
+        <v>960.4189940423513</v>
       </c>
       <c r="AB8" t="n">
-        <v>999.3157851473019</v>
+        <v>1314.087638344389</v>
       </c>
       <c r="AC8" t="n">
-        <v>903.9424891613559</v>
+        <v>1188.672958474384</v>
       </c>
       <c r="AD8" t="n">
-        <v>730363.6630438225</v>
+        <v>960418.9940423513</v>
       </c>
       <c r="AE8" t="n">
-        <v>999315.7851473019</v>
+        <v>1314087.638344389</v>
       </c>
       <c r="AF8" t="n">
         <v>3.88602641416824e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>903942.4891613559</v>
+        <v>1188672.958474384</v>
       </c>
     </row>
     <row r="9">
@@ -17048,28 +17048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>716.5176794432821</v>
+        <v>956.1604431955468</v>
       </c>
       <c r="AB9" t="n">
-        <v>980.3710995433572</v>
+        <v>1308.260901201787</v>
       </c>
       <c r="AC9" t="n">
-        <v>886.8058577624186</v>
+        <v>1183.402316946795</v>
       </c>
       <c r="AD9" t="n">
-        <v>716517.6794432821</v>
+        <v>956160.4431955469</v>
       </c>
       <c r="AE9" t="n">
-        <v>980371.0995433573</v>
+        <v>1308260.901201787</v>
       </c>
       <c r="AF9" t="n">
         <v>3.897858096458163e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.91666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>886805.8577624186</v>
+        <v>1183402.316946795</v>
       </c>
     </row>
     <row r="10">
@@ -17154,28 +17154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>711.3599975313767</v>
+        <v>951.0027612836415</v>
       </c>
       <c r="AB10" t="n">
-        <v>973.3141316106213</v>
+        <v>1301.203933269051</v>
       </c>
       <c r="AC10" t="n">
-        <v>880.4223969446663</v>
+        <v>1177.018856129043</v>
       </c>
       <c r="AD10" t="n">
-        <v>711359.9975313768</v>
+        <v>951002.7612836414</v>
       </c>
       <c r="AE10" t="n">
-        <v>973314.1316106213</v>
+        <v>1301203.933269051</v>
       </c>
       <c r="AF10" t="n">
         <v>3.922023411195761e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>880422.3969446663</v>
+        <v>1177018.856129043</v>
       </c>
     </row>
     <row r="11">
@@ -17260,28 +17260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>706.3387418534251</v>
+        <v>936.3599074331731</v>
       </c>
       <c r="AB11" t="n">
-        <v>966.4438280698816</v>
+        <v>1281.168934633721</v>
       </c>
       <c r="AC11" t="n">
-        <v>874.2077855313232</v>
+        <v>1158.895969644171</v>
       </c>
       <c r="AD11" t="n">
-        <v>706338.741853425</v>
+        <v>936359.9074331732</v>
       </c>
       <c r="AE11" t="n">
-        <v>966443.8280698817</v>
+        <v>1281168.934633721</v>
       </c>
       <c r="AF11" t="n">
         <v>3.941025810025032e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.39583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>874207.7855313232</v>
+        <v>1158895.969644171</v>
       </c>
     </row>
     <row r="12">
@@ -17366,28 +17366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>702.1118287339326</v>
+        <v>932.1329943136806</v>
       </c>
       <c r="AB12" t="n">
-        <v>960.6603790615462</v>
+        <v>1275.385485625385</v>
       </c>
       <c r="AC12" t="n">
-        <v>868.9763007792216</v>
+        <v>1153.664484892069</v>
       </c>
       <c r="AD12" t="n">
-        <v>702111.8287339326</v>
+        <v>932132.9943136806</v>
       </c>
       <c r="AE12" t="n">
-        <v>960660.3790615462</v>
+        <v>1275385.485625385</v>
       </c>
       <c r="AF12" t="n">
         <v>3.954148221292036e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.21354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>868976.3007792216</v>
+        <v>1153664.484892069</v>
       </c>
     </row>
     <row r="13">
@@ -17472,28 +17472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>698.7446116839694</v>
+        <v>928.7657772637175</v>
       </c>
       <c r="AB13" t="n">
-        <v>956.0532041426543</v>
+        <v>1270.778310706493</v>
       </c>
       <c r="AC13" t="n">
-        <v>864.8088281683782</v>
+        <v>1149.497012281226</v>
       </c>
       <c r="AD13" t="n">
-        <v>698744.6116839694</v>
+        <v>928765.7772637175</v>
       </c>
       <c r="AE13" t="n">
-        <v>956053.2041426543</v>
+        <v>1270778.310706493</v>
       </c>
       <c r="AF13" t="n">
         <v>3.963255031297006e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.109375</v>
       </c>
       <c r="AH13" t="n">
-        <v>864808.8281683782</v>
+        <v>1149497.012281226</v>
       </c>
     </row>
     <row r="14">
@@ -17578,28 +17578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>699.4845072944844</v>
+        <v>929.5056728742325</v>
       </c>
       <c r="AB14" t="n">
-        <v>957.0655619588515</v>
+        <v>1271.790668522691</v>
       </c>
       <c r="AC14" t="n">
-        <v>865.7245679754507</v>
+        <v>1150.412752088298</v>
       </c>
       <c r="AD14" t="n">
-        <v>699484.5072944844</v>
+        <v>929505.6728742324</v>
       </c>
       <c r="AE14" t="n">
-        <v>957065.5619588515</v>
+        <v>1271790.668522691</v>
       </c>
       <c r="AF14" t="n">
         <v>3.962896495470039e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.109375</v>
       </c>
       <c r="AH14" t="n">
-        <v>865724.5679754507</v>
+        <v>1150412.752088299</v>
       </c>
     </row>
   </sheetData>
@@ -17875,28 +17875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1153.687459448978</v>
+        <v>1500.990053377333</v>
       </c>
       <c r="AB2" t="n">
-        <v>1578.526079116666</v>
+        <v>2053.720810038519</v>
       </c>
       <c r="AC2" t="n">
-        <v>1427.873765601038</v>
+        <v>1857.716578343702</v>
       </c>
       <c r="AD2" t="n">
-        <v>1153687.459448978</v>
+        <v>1500990.053377333</v>
       </c>
       <c r="AE2" t="n">
-        <v>1578526.079116666</v>
+        <v>2053720.810038519</v>
       </c>
       <c r="AF2" t="n">
         <v>2.592345314930191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1427873.765601038</v>
+        <v>1857716.578343702</v>
       </c>
     </row>
     <row r="3">
@@ -17981,28 +17981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>907.6975339267157</v>
+        <v>1187.510825658623</v>
       </c>
       <c r="AB3" t="n">
-        <v>1241.951810707511</v>
+        <v>1624.804700946306</v>
       </c>
       <c r="AC3" t="n">
-        <v>1123.421672983899</v>
+        <v>1469.73562071571</v>
       </c>
       <c r="AD3" t="n">
-        <v>907697.5339267156</v>
+        <v>1187510.825658623</v>
       </c>
       <c r="AE3" t="n">
-        <v>1241951.81070751</v>
+        <v>1624804.700946306</v>
       </c>
       <c r="AF3" t="n">
         <v>3.150613308599752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1123421.672983899</v>
+        <v>1469735.62071571</v>
       </c>
     </row>
     <row r="4">
@@ -18087,28 +18087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>842.9611799422539</v>
+        <v>1103.404970999597</v>
       </c>
       <c r="AB4" t="n">
-        <v>1153.376675219596</v>
+        <v>1509.727360113392</v>
       </c>
       <c r="AC4" t="n">
-        <v>1043.300024110968</v>
+        <v>1365.641099779827</v>
       </c>
       <c r="AD4" t="n">
-        <v>842961.179942254</v>
+        <v>1103404.970999597</v>
       </c>
       <c r="AE4" t="n">
-        <v>1153376.675219596</v>
+        <v>1509727.360113392</v>
       </c>
       <c r="AF4" t="n">
         <v>3.359016212638135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.47395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1043300.024110968</v>
+        <v>1365641.099779827</v>
       </c>
     </row>
     <row r="5">
@@ -18193,28 +18193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>805.5014929031753</v>
+        <v>1056.395678753573</v>
       </c>
       <c r="AB5" t="n">
-        <v>1102.122678807972</v>
+        <v>1445.407172558778</v>
       </c>
       <c r="AC5" t="n">
-        <v>996.9376371814328</v>
+        <v>1307.459540651475</v>
       </c>
       <c r="AD5" t="n">
-        <v>805501.4929031753</v>
+        <v>1056395.678753573</v>
       </c>
       <c r="AE5" t="n">
-        <v>1102122.678807972</v>
+        <v>1445407.172558778</v>
       </c>
       <c r="AF5" t="n">
         <v>3.471915220087314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>996937.6371814328</v>
+        <v>1307459.540651475</v>
       </c>
     </row>
     <row r="6">
@@ -18299,28 +18299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>784.9809859287511</v>
+        <v>1035.841006360368</v>
       </c>
       <c r="AB6" t="n">
-        <v>1074.045615864689</v>
+        <v>1417.283362982248</v>
       </c>
       <c r="AC6" t="n">
-        <v>971.5402097190523</v>
+        <v>1282.019827988915</v>
       </c>
       <c r="AD6" t="n">
-        <v>784980.9859287512</v>
+        <v>1035841.006360368</v>
       </c>
       <c r="AE6" t="n">
-        <v>1074045.615864689</v>
+        <v>1417283.362982248</v>
       </c>
       <c r="AF6" t="n">
         <v>3.537976030201462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.81770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>971540.2097190523</v>
+        <v>1282019.827988915</v>
       </c>
     </row>
     <row r="7">
@@ -18405,28 +18405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>776.8776844099448</v>
+        <v>1018.053460019208</v>
       </c>
       <c r="AB7" t="n">
-        <v>1062.958321234227</v>
+        <v>1392.945657347112</v>
       </c>
       <c r="AC7" t="n">
-        <v>961.5110709270048</v>
+        <v>1260.004878821412</v>
       </c>
       <c r="AD7" t="n">
-        <v>776877.6844099448</v>
+        <v>1018053.460019208</v>
       </c>
       <c r="AE7" t="n">
-        <v>1062958.321234226</v>
+        <v>1392945.657347112</v>
       </c>
       <c r="AF7" t="n">
         <v>3.5846111717677e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.16666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>961511.0709270048</v>
+        <v>1260004.878821412</v>
       </c>
     </row>
     <row r="8">
@@ -18511,28 +18511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>761.1736388709953</v>
+        <v>1002.416734287963</v>
       </c>
       <c r="AB8" t="n">
-        <v>1041.471353314243</v>
+        <v>1371.55079935797</v>
       </c>
       <c r="AC8" t="n">
-        <v>942.0747890681557</v>
+        <v>1240.651916050882</v>
       </c>
       <c r="AD8" t="n">
-        <v>761173.6388709954</v>
+        <v>1002416.734287963</v>
       </c>
       <c r="AE8" t="n">
-        <v>1041471.353314243</v>
+        <v>1371550.79935797</v>
       </c>
       <c r="AF8" t="n">
         <v>3.6147311108054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.77604166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>942074.7890681557</v>
+        <v>1240651.916050882</v>
       </c>
     </row>
     <row r="9">
@@ -18617,28 +18617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>755.2963070481263</v>
+        <v>996.437917238609</v>
       </c>
       <c r="AB9" t="n">
-        <v>1033.429728624613</v>
+        <v>1363.370318104251</v>
       </c>
       <c r="AC9" t="n">
-        <v>934.8006457524132</v>
+        <v>1233.25216844664</v>
       </c>
       <c r="AD9" t="n">
-        <v>755296.3070481264</v>
+        <v>996437.9172386089</v>
       </c>
       <c r="AE9" t="n">
-        <v>1033429.728624613</v>
+        <v>1363370.318104251</v>
       </c>
       <c r="AF9" t="n">
         <v>3.645527902405746e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>934800.6457524132</v>
+        <v>1233252.16844664</v>
       </c>
     </row>
     <row r="10">
@@ -18723,28 +18723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>750.7662402633249</v>
+        <v>982.3250908579394</v>
       </c>
       <c r="AB10" t="n">
-        <v>1027.231491397206</v>
+        <v>1344.060526436261</v>
       </c>
       <c r="AC10" t="n">
-        <v>929.1939595867094</v>
+        <v>1215.78527619398</v>
       </c>
       <c r="AD10" t="n">
-        <v>750766.2402633249</v>
+        <v>982325.0908579393</v>
       </c>
       <c r="AE10" t="n">
-        <v>1027231.491397206</v>
+        <v>1344060.526436261</v>
       </c>
       <c r="AF10" t="n">
         <v>3.665495053003772e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>929193.9595867094</v>
+        <v>1215785.27619398</v>
       </c>
     </row>
     <row r="11">
@@ -18829,28 +18829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>737.3777133881573</v>
+        <v>978.5866433863445</v>
       </c>
       <c r="AB11" t="n">
-        <v>1008.912718266483</v>
+        <v>1338.945417676962</v>
       </c>
       <c r="AC11" t="n">
-        <v>912.6235044530225</v>
+        <v>1211.158346235569</v>
       </c>
       <c r="AD11" t="n">
-        <v>737377.7133881573</v>
+        <v>978586.6433863444</v>
       </c>
       <c r="AE11" t="n">
-        <v>1008912.718266483</v>
+        <v>1338945.417676962</v>
       </c>
       <c r="AF11" t="n">
         <v>3.673414227986718e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.99479166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>912623.5044530225</v>
+        <v>1211158.346235569</v>
       </c>
     </row>
     <row r="12">
@@ -18935,28 +18935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>732.2797805299871</v>
+        <v>973.4887105281744</v>
       </c>
       <c r="AB12" t="n">
-        <v>1001.93750162501</v>
+        <v>1331.970201035489</v>
       </c>
       <c r="AC12" t="n">
-        <v>906.3139926980335</v>
+        <v>1204.84883448058</v>
       </c>
       <c r="AD12" t="n">
-        <v>732279.7805299871</v>
+        <v>973488.7105281743</v>
       </c>
       <c r="AE12" t="n">
-        <v>1001937.50162501</v>
+        <v>1331970.201035489</v>
       </c>
       <c r="AF12" t="n">
         <v>3.695141195247622e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>906313.9926980336</v>
+        <v>1204848.83448058</v>
       </c>
     </row>
     <row r="13">
@@ -19041,28 +19041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>729.1118750319901</v>
+        <v>970.3208050301772</v>
       </c>
       <c r="AB13" t="n">
-        <v>997.6030335645231</v>
+        <v>1327.635732975003</v>
       </c>
       <c r="AC13" t="n">
-        <v>902.3932001857758</v>
+        <v>1200.928041968322</v>
       </c>
       <c r="AD13" t="n">
-        <v>729111.87503199</v>
+        <v>970320.8050301772</v>
       </c>
       <c r="AE13" t="n">
-        <v>997603.0335645231</v>
+        <v>1327635.732975003</v>
       </c>
       <c r="AF13" t="n">
         <v>3.704143334330799e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>902393.2001857758</v>
+        <v>1200928.041968322</v>
       </c>
     </row>
     <row r="14">
@@ -19147,28 +19147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>724.9456198793678</v>
+        <v>956.4703050552013</v>
       </c>
       <c r="AB14" t="n">
-        <v>991.9025794625002</v>
+        <v>1308.684867868307</v>
       </c>
       <c r="AC14" t="n">
-        <v>897.2367894226122</v>
+        <v>1183.785820829703</v>
       </c>
       <c r="AD14" t="n">
-        <v>724945.6198793678</v>
+        <v>956470.3050552013</v>
       </c>
       <c r="AE14" t="n">
-        <v>991902.5794625002</v>
+        <v>1308684.867868307</v>
       </c>
       <c r="AF14" t="n">
         <v>3.715988254177086e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.421875</v>
       </c>
       <c r="AH14" t="n">
-        <v>897236.7894226122</v>
+        <v>1183785.820829703</v>
       </c>
     </row>
     <row r="15">
@@ -19253,28 +19253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>721.5931327080826</v>
+        <v>953.1178178839164</v>
       </c>
       <c r="AB15" t="n">
-        <v>987.3155586134524</v>
+        <v>1304.097847019259</v>
       </c>
       <c r="AC15" t="n">
-        <v>893.0875474054734</v>
+        <v>1179.636578812564</v>
       </c>
       <c r="AD15" t="n">
-        <v>721593.1327080827</v>
+        <v>953117.8178839163</v>
       </c>
       <c r="AE15" t="n">
-        <v>987315.5586134524</v>
+        <v>1304097.847019259</v>
       </c>
       <c r="AF15" t="n">
         <v>3.715582142639499e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>47.44791666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>893087.5474054734</v>
+        <v>1179636.578812564</v>
       </c>
     </row>
     <row r="16">
@@ -19359,28 +19359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>720.1184568731766</v>
+        <v>951.6431420490102</v>
       </c>
       <c r="AB16" t="n">
-        <v>985.2978420780274</v>
+        <v>1302.080130483834</v>
       </c>
       <c r="AC16" t="n">
-        <v>891.2623989043063</v>
+        <v>1177.811430311397</v>
       </c>
       <c r="AD16" t="n">
-        <v>720118.4568731766</v>
+        <v>951643.1420490101</v>
       </c>
       <c r="AE16" t="n">
-        <v>985297.8420780274</v>
+        <v>1302080.130483834</v>
       </c>
       <c r="AF16" t="n">
         <v>3.724313540697619e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>48</v>
+        <v>47.31770833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>891262.3989043063</v>
+        <v>1177811.430311397</v>
       </c>
     </row>
     <row r="17">
@@ -19465,28 +19465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>720.7239719366141</v>
+        <v>952.2486571124476</v>
       </c>
       <c r="AB17" t="n">
-        <v>986.1263345012619</v>
+        <v>1302.908622907069</v>
       </c>
       <c r="AC17" t="n">
-        <v>892.011821173464</v>
+        <v>1178.560852580555</v>
       </c>
       <c r="AD17" t="n">
-        <v>720723.9719366141</v>
+        <v>952248.6571124477</v>
       </c>
       <c r="AE17" t="n">
-        <v>986126.3345012619</v>
+        <v>1302908.622907069</v>
       </c>
       <c r="AF17" t="n">
         <v>3.724719652235206e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>48</v>
+        <v>47.31770833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>892011.8211734639</v>
+        <v>1178560.852580555</v>
       </c>
     </row>
   </sheetData>
@@ -19762,28 +19762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1389.464082007657</v>
+        <v>1779.840819403382</v>
       </c>
       <c r="AB2" t="n">
-        <v>1901.126055831921</v>
+        <v>2435.256730142922</v>
       </c>
       <c r="AC2" t="n">
-        <v>1719.685253310499</v>
+        <v>2202.839245722369</v>
       </c>
       <c r="AD2" t="n">
-        <v>1389464.082007657</v>
+        <v>1779840.819403382</v>
       </c>
       <c r="AE2" t="n">
-        <v>1901126.055831921</v>
+        <v>2435256.730142922</v>
       </c>
       <c r="AF2" t="n">
         <v>2.110092609803746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1719685.253310499</v>
+        <v>2202839.245722368</v>
       </c>
     </row>
     <row r="3">
@@ -19868,28 +19868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1033.787067881121</v>
+        <v>1336.366621323466</v>
       </c>
       <c r="AB3" t="n">
-        <v>1414.473073741572</v>
+        <v>1828.47576762917</v>
       </c>
       <c r="AC3" t="n">
-        <v>1279.477748809103</v>
+        <v>1653.968606648499</v>
       </c>
       <c r="AD3" t="n">
-        <v>1033787.067881121</v>
+        <v>1336366.621323466</v>
       </c>
       <c r="AE3" t="n">
-        <v>1414473.073741572</v>
+        <v>1828475.76762917</v>
       </c>
       <c r="AF3" t="n">
         <v>2.690992601906073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1279477.748809103</v>
+        <v>1653968.606648499</v>
       </c>
     </row>
     <row r="4">
@@ -19974,28 +19974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>932.5973975548586</v>
+        <v>1215.617115624881</v>
       </c>
       <c r="AB4" t="n">
-        <v>1276.02090262799</v>
+        <v>1663.260966840142</v>
       </c>
       <c r="AC4" t="n">
-        <v>1154.239258587759</v>
+        <v>1504.521674566346</v>
       </c>
       <c r="AD4" t="n">
-        <v>932597.3975548586</v>
+        <v>1215617.115624881</v>
       </c>
       <c r="AE4" t="n">
-        <v>1276020.90262799</v>
+        <v>1663260.966840142</v>
       </c>
       <c r="AF4" t="n">
         <v>2.921482102003024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1154239.258587759</v>
+        <v>1504521.674566346</v>
       </c>
     </row>
     <row r="5">
@@ -20080,28 +20080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>889.9744906675245</v>
+        <v>1153.536869621566</v>
       </c>
       <c r="AB5" t="n">
-        <v>1217.702361034799</v>
+        <v>1578.320035471246</v>
       </c>
       <c r="AC5" t="n">
-        <v>1101.486556753635</v>
+        <v>1427.687386471953</v>
       </c>
       <c r="AD5" t="n">
-        <v>889974.4906675245</v>
+        <v>1153536.869621566</v>
       </c>
       <c r="AE5" t="n">
-        <v>1217702.361034799</v>
+        <v>1578320.035471246</v>
       </c>
       <c r="AF5" t="n">
         <v>3.036849911047814e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.76041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1101486.556753635</v>
+        <v>1427687.386471953</v>
       </c>
     </row>
     <row r="6">
@@ -20186,28 +20186,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>866.9224465926783</v>
+        <v>1130.450660127939</v>
       </c>
       <c r="AB6" t="n">
-        <v>1186.161537347185</v>
+        <v>1546.732465150385</v>
       </c>
       <c r="AC6" t="n">
-        <v>1072.955945010943</v>
+        <v>1399.11448952908</v>
       </c>
       <c r="AD6" t="n">
-        <v>866922.4465926783</v>
+        <v>1130450.660127939</v>
       </c>
       <c r="AE6" t="n">
-        <v>1186161.537347185</v>
+        <v>1546732.465150384</v>
       </c>
       <c r="AF6" t="n">
         <v>3.105455301493115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.58854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1072955.945010943</v>
+        <v>1399114.48952908</v>
       </c>
     </row>
     <row r="7">
@@ -20292,28 +20292,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>846.005688035067</v>
+        <v>1099.805232012337</v>
       </c>
       <c r="AB7" t="n">
-        <v>1157.542305506401</v>
+        <v>1504.802038421748</v>
       </c>
       <c r="AC7" t="n">
-        <v>1047.068092489699</v>
+        <v>1361.185843877701</v>
       </c>
       <c r="AD7" t="n">
-        <v>846005.6880350671</v>
+        <v>1099805.232012337</v>
       </c>
       <c r="AE7" t="n">
-        <v>1157542.305506401</v>
+        <v>1504802.038421748</v>
       </c>
       <c r="AF7" t="n">
         <v>3.163046911768274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.65104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1047068.092489698</v>
+        <v>1361185.843877702</v>
       </c>
     </row>
     <row r="8">
@@ -20398,28 +20398,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>838.8800571238336</v>
+        <v>1082.883611735409</v>
       </c>
       <c r="AB8" t="n">
-        <v>1147.792702933002</v>
+        <v>1481.649131029656</v>
       </c>
       <c r="AC8" t="n">
-        <v>1038.248978302252</v>
+        <v>1340.242617471801</v>
       </c>
       <c r="AD8" t="n">
-        <v>838880.0571238336</v>
+        <v>1082883.611735409</v>
       </c>
       <c r="AE8" t="n">
-        <v>1147792.702933002</v>
+        <v>1481649.131029655</v>
       </c>
       <c r="AF8" t="n">
         <v>3.198857079695777e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1038248.978302252</v>
+        <v>1340242.617471801</v>
       </c>
     </row>
     <row r="9">
@@ -20504,28 +20504,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>822.400878653785</v>
+        <v>1076.166257212274</v>
       </c>
       <c r="AB9" t="n">
-        <v>1125.245163940237</v>
+        <v>1472.458150222336</v>
       </c>
       <c r="AC9" t="n">
-        <v>1017.853344785286</v>
+        <v>1331.928810973109</v>
       </c>
       <c r="AD9" t="n">
-        <v>822400.878653785</v>
+        <v>1076166.257212274</v>
       </c>
       <c r="AE9" t="n">
-        <v>1125245.163940237</v>
+        <v>1472458.150222336</v>
       </c>
       <c r="AF9" t="n">
         <v>3.230298653254117e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1017853.344785286</v>
+        <v>1331928.810973109</v>
       </c>
     </row>
     <row r="10">
@@ -20610,28 +20610,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>817.7049391807241</v>
+        <v>1061.674328373519</v>
       </c>
       <c r="AB10" t="n">
-        <v>1118.819972382967</v>
+        <v>1452.629653846373</v>
       </c>
       <c r="AC10" t="n">
-        <v>1012.041364492429</v>
+        <v>1313.992718461798</v>
       </c>
       <c r="AD10" t="n">
-        <v>817704.9391807241</v>
+        <v>1061674.328373519</v>
       </c>
       <c r="AE10" t="n">
-        <v>1118819.972382967</v>
+        <v>1452629.653846373</v>
       </c>
       <c r="AF10" t="n">
         <v>3.250541858147843e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1012041.364492429</v>
+        <v>1313992.718461798</v>
       </c>
     </row>
     <row r="11">
@@ -20716,28 +20716,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>814.0760120841111</v>
+        <v>1058.045401276906</v>
       </c>
       <c r="AB11" t="n">
-        <v>1113.854714232416</v>
+        <v>1447.664395695823</v>
       </c>
       <c r="AC11" t="n">
-        <v>1007.549983610984</v>
+        <v>1309.501337580353</v>
       </c>
       <c r="AD11" t="n">
-        <v>814076.0120841111</v>
+        <v>1058045.401276906</v>
       </c>
       <c r="AE11" t="n">
-        <v>1113854.714232416</v>
+        <v>1447664.395695823</v>
       </c>
       <c r="AF11" t="n">
         <v>3.267031763653978e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.03645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1007549.983610984</v>
+        <v>1309501.337580353</v>
       </c>
     </row>
     <row r="12">
@@ -20822,28 +20822,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>800.470418549267</v>
+        <v>1054.201631688976</v>
       </c>
       <c r="AB12" t="n">
-        <v>1095.238940921619</v>
+        <v>1442.40518057047</v>
       </c>
       <c r="AC12" t="n">
-        <v>990.7108735775665</v>
+        <v>1304.74405456521</v>
       </c>
       <c r="AD12" t="n">
-        <v>800470.418549267</v>
+        <v>1054201.631688975</v>
       </c>
       <c r="AE12" t="n">
-        <v>1095238.940921619</v>
+        <v>1442405.18057047</v>
       </c>
       <c r="AF12" t="n">
         <v>3.278107073322278e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.88020833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>990710.8735775666</v>
+        <v>1304744.05456521</v>
       </c>
     </row>
     <row r="13">
@@ -20928,28 +20928,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>795.9890392208185</v>
+        <v>1040.025748221318</v>
       </c>
       <c r="AB13" t="n">
-        <v>1089.107320019933</v>
+        <v>1423.00911141418</v>
       </c>
       <c r="AC13" t="n">
-        <v>985.1644459689537</v>
+        <v>1287.199119026642</v>
       </c>
       <c r="AD13" t="n">
-        <v>795989.0392208186</v>
+        <v>1040025.748221318</v>
       </c>
       <c r="AE13" t="n">
-        <v>1089107.320019933</v>
+        <v>1423009.11141418</v>
       </c>
       <c r="AF13" t="n">
         <v>3.29865792570679e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.56770833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>985164.4459689537</v>
+        <v>1287199.119026642</v>
       </c>
     </row>
     <row r="14">
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>792.1252632893552</v>
+        <v>1036.060487063369</v>
       </c>
       <c r="AB14" t="n">
-        <v>1083.820731332741</v>
+        <v>1417.583666162899</v>
       </c>
       <c r="AC14" t="n">
-        <v>980.3824018862936</v>
+        <v>1282.291470655483</v>
       </c>
       <c r="AD14" t="n">
-        <v>792125.2632893552</v>
+        <v>1036060.487063369</v>
       </c>
       <c r="AE14" t="n">
-        <v>1083820.731332741</v>
+        <v>1417583.666162899</v>
       </c>
       <c r="AF14" t="n">
         <v>3.309979353367719e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.41145833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>980382.4018862935</v>
+        <v>1282291.470655483</v>
       </c>
     </row>
     <row r="15">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>789.3366347003891</v>
+        <v>1033.271858474403</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080.005206671707</v>
+        <v>1413.768141501865</v>
       </c>
       <c r="AC15" t="n">
-        <v>976.9310255437861</v>
+        <v>1278.840094312975</v>
       </c>
       <c r="AD15" t="n">
-        <v>789336.6347003891</v>
+        <v>1033271.858474403</v>
       </c>
       <c r="AE15" t="n">
-        <v>1080005.206671707</v>
+        <v>1413768.141501865</v>
       </c>
       <c r="AF15" t="n">
         <v>3.318408894615258e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH15" t="n">
-        <v>976931.0255437861</v>
+        <v>1278840.094312975</v>
       </c>
     </row>
     <row r="16">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>787.0887643635473</v>
+        <v>1031.023988137561</v>
       </c>
       <c r="AB16" t="n">
-        <v>1076.929571307799</v>
+        <v>1410.692506137958</v>
       </c>
       <c r="AC16" t="n">
-        <v>974.1489245023288</v>
+        <v>1276.057993271518</v>
       </c>
       <c r="AD16" t="n">
-        <v>787088.7643635473</v>
+        <v>1031023.988137561</v>
       </c>
       <c r="AE16" t="n">
-        <v>1076929.571307799</v>
+        <v>1410692.506137958</v>
       </c>
       <c r="AF16" t="n">
         <v>3.321054663036019e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>49</v>
+        <v>48.25520833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>974148.9245023287</v>
+        <v>1276057.993271518</v>
       </c>
     </row>
     <row r="17">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>784.6888465206855</v>
+        <v>1018.92956615549</v>
       </c>
       <c r="AB17" t="n">
-        <v>1073.645897838293</v>
+        <v>1394.144384413847</v>
       </c>
       <c r="AC17" t="n">
-        <v>971.1786402200875</v>
+        <v>1261.089201059322</v>
       </c>
       <c r="AD17" t="n">
-        <v>784688.8465206855</v>
+        <v>1018929.56615549</v>
       </c>
       <c r="AE17" t="n">
-        <v>1073645.897838293</v>
+        <v>1394144.384413847</v>
       </c>
       <c r="AF17" t="n">
         <v>3.330899382741174e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>971178.6402200875</v>
+        <v>1261089.201059322</v>
       </c>
     </row>
     <row r="18">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>770.6857484074163</v>
+        <v>1014.688291989135</v>
       </c>
       <c r="AB18" t="n">
-        <v>1054.48624122663</v>
+        <v>1388.34128598763</v>
       </c>
       <c r="AC18" t="n">
-        <v>953.8475543446943</v>
+        <v>1255.839942202203</v>
       </c>
       <c r="AD18" t="n">
-        <v>770685.7484074163</v>
+        <v>1014688.291989135</v>
       </c>
       <c r="AE18" t="n">
-        <v>1054486.24122663</v>
+        <v>1388341.28598763</v>
       </c>
       <c r="AF18" t="n">
         <v>3.340744102446329e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH18" t="n">
-        <v>953847.5543446944</v>
+        <v>1255839.942202203</v>
       </c>
     </row>
     <row r="19">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>770.3741387861154</v>
+        <v>1014.376682367834</v>
       </c>
       <c r="AB19" t="n">
-        <v>1054.05988319552</v>
+        <v>1387.914927956519</v>
       </c>
       <c r="AC19" t="n">
-        <v>953.4618873256761</v>
+        <v>1255.454275183184</v>
       </c>
       <c r="AD19" t="n">
-        <v>770374.1387861155</v>
+        <v>1014376.682367834</v>
       </c>
       <c r="AE19" t="n">
-        <v>1054059.88319552</v>
+        <v>1387914.927956519</v>
       </c>
       <c r="AF19" t="n">
         <v>3.339944218970286e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH19" t="n">
-        <v>953461.8873256762</v>
+        <v>1255454.275183184</v>
       </c>
     </row>
     <row r="20">
@@ -21670,28 +21670,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>765.8073698727196</v>
+        <v>1009.809913454438</v>
       </c>
       <c r="AB20" t="n">
-        <v>1047.811428496586</v>
+        <v>1381.666473257586</v>
       </c>
       <c r="AC20" t="n">
-        <v>947.8097763734476</v>
+        <v>1249.802164230956</v>
       </c>
       <c r="AD20" t="n">
-        <v>765807.3698727196</v>
+        <v>1009809.913454438</v>
       </c>
       <c r="AE20" t="n">
-        <v>1047811.428496586</v>
+        <v>1381666.473257586</v>
       </c>
       <c r="AF20" t="n">
         <v>3.35003505666807e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>947809.7763734476</v>
+        <v>1249802.164230956</v>
       </c>
     </row>
     <row r="21">
@@ -21776,28 +21776,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>764.8067006458003</v>
+        <v>1008.809244227519</v>
       </c>
       <c r="AB21" t="n">
-        <v>1046.442268713904</v>
+        <v>1380.297313474904</v>
       </c>
       <c r="AC21" t="n">
-        <v>946.5712872787973</v>
+        <v>1248.563675136305</v>
       </c>
       <c r="AD21" t="n">
-        <v>764806.7006458003</v>
+        <v>1008809.244227519</v>
       </c>
       <c r="AE21" t="n">
-        <v>1046442.268713905</v>
+        <v>1380297.313474904</v>
       </c>
       <c r="AF21" t="n">
         <v>3.351450235125686e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="AH21" t="n">
-        <v>946571.2872787972</v>
+        <v>1248563.675136305</v>
       </c>
     </row>
     <row r="22">
@@ -21882,28 +21882,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>761.7868649630151</v>
+        <v>1005.789408544733</v>
       </c>
       <c r="AB22" t="n">
-        <v>1042.31039630697</v>
+        <v>1376.16544106797</v>
       </c>
       <c r="AC22" t="n">
-        <v>942.8337549752612</v>
+        <v>1244.82614283277</v>
       </c>
       <c r="AD22" t="n">
-        <v>761786.8649630151</v>
+        <v>1005789.408544733</v>
       </c>
       <c r="AE22" t="n">
-        <v>1042310.39630697</v>
+        <v>1376165.44106797</v>
       </c>
       <c r="AF22" t="n">
         <v>3.349481291184655e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>942833.7549752612</v>
+        <v>1244826.14283277</v>
       </c>
     </row>
     <row r="23">
@@ -21988,28 +21988,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>759.9037955473167</v>
+        <v>1003.906339129035</v>
       </c>
       <c r="AB23" t="n">
-        <v>1039.733897657252</v>
+        <v>1373.588942418252</v>
       </c>
       <c r="AC23" t="n">
-        <v>940.5031537405339</v>
+        <v>1242.495541598042</v>
       </c>
       <c r="AD23" t="n">
-        <v>759903.7955473167</v>
+        <v>1003906.339129035</v>
       </c>
       <c r="AE23" t="n">
-        <v>1039733.897657252</v>
+        <v>1373588.942418252</v>
       </c>
       <c r="AF23" t="n">
         <v>3.359879776373225e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>48</v>
+        <v>47.68229166666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>940503.1537405339</v>
+        <v>1242495.541598042</v>
       </c>
     </row>
     <row r="24">
@@ -22094,28 +22094,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>760.9753771204051</v>
+        <v>1004.977920702123</v>
       </c>
       <c r="AB24" t="n">
-        <v>1041.200082840394</v>
+        <v>1375.055127601394</v>
       </c>
       <c r="AC24" t="n">
-        <v>941.8294082676007</v>
+        <v>1243.821796125109</v>
       </c>
       <c r="AD24" t="n">
-        <v>760975.3771204051</v>
+        <v>1004977.920702123</v>
       </c>
       <c r="AE24" t="n">
-        <v>1041200.082840394</v>
+        <v>1375055.127601394</v>
       </c>
       <c r="AF24" t="n">
         <v>3.359449069886125e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>48</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>941829.4082676007</v>
+        <v>1243821.796125109</v>
       </c>
     </row>
   </sheetData>
@@ -22391,28 +22391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>960.8719967742883</v>
+        <v>1255.882513213191</v>
       </c>
       <c r="AB2" t="n">
-        <v>1314.707456667295</v>
+        <v>1718.353860204438</v>
       </c>
       <c r="AC2" t="n">
-        <v>1189.233622206472</v>
+        <v>1554.356579511316</v>
       </c>
       <c r="AD2" t="n">
-        <v>960871.9967742882</v>
+        <v>1255882.513213191</v>
       </c>
       <c r="AE2" t="n">
-        <v>1314707.456667295</v>
+        <v>1718353.860204438</v>
       </c>
       <c r="AF2" t="n">
         <v>3.269653672985982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1189233.622206472</v>
+        <v>1554356.579511316</v>
       </c>
     </row>
     <row r="3">
@@ -22497,28 +22497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>795.4737824313422</v>
+        <v>1052.472650721125</v>
       </c>
       <c r="AB3" t="n">
-        <v>1088.402322949046</v>
+        <v>1440.039512533</v>
       </c>
       <c r="AC3" t="n">
-        <v>984.5267328290427</v>
+        <v>1302.604162565</v>
       </c>
       <c r="AD3" t="n">
-        <v>795473.7824313422</v>
+        <v>1052472.650721125</v>
       </c>
       <c r="AE3" t="n">
-        <v>1088402.322949046</v>
+        <v>1440039.512533</v>
       </c>
       <c r="AF3" t="n">
         <v>3.792632576528854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>984526.7328290427</v>
+        <v>1302604.162565</v>
       </c>
     </row>
     <row r="4">
@@ -22603,28 +22603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>752.9254091236052</v>
+        <v>1000.303050197697</v>
       </c>
       <c r="AB4" t="n">
-        <v>1030.185761487649</v>
+        <v>1368.658763536507</v>
       </c>
       <c r="AC4" t="n">
-        <v>931.8662782860642</v>
+        <v>1238.035892069221</v>
       </c>
       <c r="AD4" t="n">
-        <v>752925.4091236051</v>
+        <v>1000303.050197697</v>
       </c>
       <c r="AE4" t="n">
-        <v>1030185.761487649</v>
+        <v>1368658.763536507</v>
       </c>
       <c r="AF4" t="n">
         <v>3.975191947375442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.26041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>931866.2782860643</v>
+        <v>1238035.892069221</v>
       </c>
     </row>
     <row r="5">
@@ -22709,28 +22709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>719.8990972786064</v>
+        <v>967.3098927416218</v>
       </c>
       <c r="AB5" t="n">
-        <v>984.9977046032741</v>
+        <v>1323.516069949726</v>
       </c>
       <c r="AC5" t="n">
-        <v>890.990906128898</v>
+        <v>1197.201553800194</v>
       </c>
       <c r="AD5" t="n">
-        <v>719899.0972786064</v>
+        <v>967309.8927416217</v>
       </c>
       <c r="AE5" t="n">
-        <v>984997.7046032741</v>
+        <v>1323516.069949726</v>
       </c>
       <c r="AF5" t="n">
         <v>4.082349695725308e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.93229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>890990.906128898</v>
+        <v>1197201.553800194</v>
       </c>
     </row>
     <row r="6">
@@ -22815,28 +22815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>711.7311787266551</v>
+        <v>949.5890778115406</v>
       </c>
       <c r="AB6" t="n">
-        <v>973.8219980973597</v>
+        <v>1299.26966917521</v>
       </c>
       <c r="AC6" t="n">
-        <v>880.8817933667053</v>
+        <v>1175.269195485561</v>
       </c>
       <c r="AD6" t="n">
-        <v>711731.1787266551</v>
+        <v>949589.0778115406</v>
       </c>
       <c r="AE6" t="n">
-        <v>973821.9980973597</v>
+        <v>1299269.66917521</v>
       </c>
       <c r="AF6" t="n">
         <v>4.137424329451296e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH6" t="n">
-        <v>880881.7933667053</v>
+        <v>1175269.195485561</v>
       </c>
     </row>
     <row r="7">
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>695.1917615334792</v>
+        <v>933.1169804260691</v>
       </c>
       <c r="AB7" t="n">
-        <v>951.1920378260671</v>
+        <v>1276.731818834759</v>
       </c>
       <c r="AC7" t="n">
-        <v>860.4116047423563</v>
+        <v>1154.882325949531</v>
       </c>
       <c r="AD7" t="n">
-        <v>695191.7615334792</v>
+        <v>933116.9804260691</v>
       </c>
       <c r="AE7" t="n">
-        <v>951192.0378260671</v>
+        <v>1276731.818834759</v>
       </c>
       <c r="AF7" t="n">
         <v>4.177081133958726e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>860411.6047423563</v>
+        <v>1154882.325949531</v>
       </c>
     </row>
     <row r="8">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>689.3673837835757</v>
+        <v>917.739706298036</v>
       </c>
       <c r="AB8" t="n">
-        <v>943.2228672352378</v>
+        <v>1255.691953975328</v>
       </c>
       <c r="AC8" t="n">
-        <v>853.2030006079146</v>
+        <v>1135.850476262648</v>
       </c>
       <c r="AD8" t="n">
-        <v>689367.3837835757</v>
+        <v>917739.706298036</v>
       </c>
       <c r="AE8" t="n">
-        <v>943222.8672352378</v>
+        <v>1255691.953975328</v>
       </c>
       <c r="AF8" t="n">
         <v>4.204771862057726e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>853203.0006079146</v>
+        <v>1135850.476262649</v>
       </c>
     </row>
     <row r="9">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>683.5955281542416</v>
+        <v>911.967850668702</v>
       </c>
       <c r="AB9" t="n">
-        <v>935.3255597268839</v>
+        <v>1247.794646466975</v>
       </c>
       <c r="AC9" t="n">
-        <v>846.0594010442173</v>
+        <v>1128.706876698951</v>
       </c>
       <c r="AD9" t="n">
-        <v>683595.5281542416</v>
+        <v>911967.850668702</v>
       </c>
       <c r="AE9" t="n">
-        <v>935325.5597268839</v>
+        <v>1247794.646466975</v>
       </c>
       <c r="AF9" t="n">
         <v>4.228857426110594e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.23958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>846059.4010442173</v>
+        <v>1128706.876698951</v>
       </c>
     </row>
     <row r="10">
@@ -23239,28 +23239,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>678.1773860819574</v>
+        <v>906.5497085964176</v>
       </c>
       <c r="AB10" t="n">
-        <v>927.9122187120263</v>
+        <v>1240.381305452117</v>
       </c>
       <c r="AC10" t="n">
-        <v>839.3535788911282</v>
+        <v>1122.001054545862</v>
       </c>
       <c r="AD10" t="n">
-        <v>678177.3860819574</v>
+        <v>906549.7085964177</v>
       </c>
       <c r="AE10" t="n">
-        <v>927912.2187120263</v>
+        <v>1240381.305452117</v>
       </c>
       <c r="AF10" t="n">
         <v>4.249184414881328e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.00520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>839353.5788911282</v>
+        <v>1122001.054545862</v>
       </c>
     </row>
     <row r="11">
@@ -23345,28 +23345,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>667.0359160725071</v>
+        <v>904.9269695463165</v>
       </c>
       <c r="AB11" t="n">
-        <v>912.6679679181302</v>
+        <v>1238.161002293574</v>
       </c>
       <c r="AC11" t="n">
-        <v>825.5642179975612</v>
+        <v>1119.992654004556</v>
       </c>
       <c r="AD11" t="n">
-        <v>667035.9160725072</v>
+        <v>904926.9695463165</v>
       </c>
       <c r="AE11" t="n">
-        <v>912667.9679181302</v>
+        <v>1238161.002293574</v>
       </c>
       <c r="AF11" t="n">
         <v>4.255397569939553e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>47</v>
+        <v>46.953125</v>
       </c>
       <c r="AH11" t="n">
-        <v>825564.2179975612</v>
+        <v>1119992.654004556</v>
       </c>
     </row>
   </sheetData>
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>820.5448622010014</v>
+        <v>1093.036279246493</v>
       </c>
       <c r="AB2" t="n">
-        <v>1122.705680347871</v>
+        <v>1495.540458622399</v>
       </c>
       <c r="AC2" t="n">
-        <v>1015.556225942789</v>
+        <v>1352.808176255694</v>
       </c>
       <c r="AD2" t="n">
-        <v>820544.8622010014</v>
+        <v>1093036.279246493</v>
       </c>
       <c r="AE2" t="n">
-        <v>1122705.680347871</v>
+        <v>1495540.458622399</v>
       </c>
       <c r="AF2" t="n">
         <v>4.025707550837428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.43229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1015556.225942789</v>
+        <v>1352808.176255694</v>
       </c>
     </row>
     <row r="3">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.7035419560099</v>
+        <v>956.992158895561</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.1524283654012</v>
+        <v>1309.398891315254</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.0852492372356</v>
+        <v>1184.431698881011</v>
       </c>
       <c r="AD3" t="n">
-        <v>712703.5419560099</v>
+        <v>956992.158895561</v>
       </c>
       <c r="AE3" t="n">
-        <v>975152.4283654012</v>
+        <v>1309398.891315254</v>
       </c>
       <c r="AF3" t="n">
         <v>4.50768302371046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>882085.2492372356</v>
+        <v>1184431.698881011</v>
       </c>
     </row>
     <row r="4">
@@ -23854,28 +23854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>676.4005104047661</v>
+        <v>911.3896792021557</v>
       </c>
       <c r="AB4" t="n">
-        <v>925.4810190202708</v>
+        <v>1247.003566759321</v>
       </c>
       <c r="AC4" t="n">
-        <v>837.1544094857437</v>
+        <v>1127.991296528309</v>
       </c>
       <c r="AD4" t="n">
-        <v>676400.5104047661</v>
+        <v>911389.6792021557</v>
       </c>
       <c r="AE4" t="n">
-        <v>925481.0190202708</v>
+        <v>1247003.566759321</v>
       </c>
       <c r="AF4" t="n">
         <v>4.675231862543087e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>837154.4094857437</v>
+        <v>1127991.296528309</v>
       </c>
     </row>
     <row r="5">
@@ -23960,28 +23960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>655.4670334674067</v>
+        <v>890.4220368460154</v>
       </c>
       <c r="AB5" t="n">
-        <v>896.8389123547522</v>
+        <v>1218.314713460554</v>
       </c>
       <c r="AC5" t="n">
-        <v>811.2458652809329</v>
+        <v>1102.040467123318</v>
       </c>
       <c r="AD5" t="n">
-        <v>655467.0334674068</v>
+        <v>890422.0368460155</v>
       </c>
       <c r="AE5" t="n">
-        <v>896838.9123547522</v>
+        <v>1218314.713460554</v>
       </c>
       <c r="AF5" t="n">
         <v>4.771522293605668e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.60416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>811245.8652809329</v>
+        <v>1102040.467123318</v>
       </c>
     </row>
     <row r="6">
@@ -24066,28 +24066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>647.4618118445491</v>
+        <v>872.9827274655873</v>
       </c>
       <c r="AB6" t="n">
-        <v>885.8858149649054</v>
+        <v>1194.453480998222</v>
       </c>
       <c r="AC6" t="n">
-        <v>801.3381161332044</v>
+        <v>1080.456517197741</v>
       </c>
       <c r="AD6" t="n">
-        <v>647461.811844549</v>
+        <v>872982.7274655873</v>
       </c>
       <c r="AE6" t="n">
-        <v>885885.8149649054</v>
+        <v>1194453.480998222</v>
       </c>
       <c r="AF6" t="n">
         <v>4.824464586771417e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.08333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>801338.1161332044</v>
+        <v>1080456.51719774</v>
       </c>
     </row>
     <row r="7">
@@ -24172,28 +24172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>632.6664583140001</v>
+        <v>858.254693742743</v>
       </c>
       <c r="AB7" t="n">
-        <v>865.6421595394778</v>
+        <v>1174.301935503636</v>
       </c>
       <c r="AC7" t="n">
-        <v>783.0264867694306</v>
+        <v>1062.228206922286</v>
       </c>
       <c r="AD7" t="n">
-        <v>632666.4583140002</v>
+        <v>858254.693742743</v>
       </c>
       <c r="AE7" t="n">
-        <v>865642.1595394778</v>
+        <v>1174301.935503636</v>
       </c>
       <c r="AF7" t="n">
         <v>4.84871163372377e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.84895833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>783026.4867694306</v>
+        <v>1062228.206922286</v>
       </c>
     </row>
     <row r="8">
@@ -24278,28 +24278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>633.5774796174527</v>
+        <v>859.1657150461953</v>
       </c>
       <c r="AB8" t="n">
-        <v>866.8886590782846</v>
+        <v>1175.548435042443</v>
       </c>
       <c r="AC8" t="n">
-        <v>784.154022141727</v>
+        <v>1063.355742294582</v>
       </c>
       <c r="AD8" t="n">
-        <v>633577.4796174527</v>
+        <v>859165.7150461953</v>
       </c>
       <c r="AE8" t="n">
-        <v>866888.6590782846</v>
+        <v>1175548.435042443</v>
       </c>
       <c r="AF8" t="n">
         <v>4.851589880304446e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.82291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>784154.0221417269</v>
+        <v>1063355.742294582</v>
       </c>
     </row>
   </sheetData>
@@ -45540,28 +45540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.7850501268841</v>
+        <v>992.2838069835871</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.260589661519</v>
+        <v>1357.68648118692</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.7016842622867</v>
+        <v>1228.110788947384</v>
       </c>
       <c r="AD2" t="n">
-        <v>731785.0501268841</v>
+        <v>992283.8069835871</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001260.589661519</v>
+        <v>1357686.48118692</v>
       </c>
       <c r="AF2" t="n">
         <v>4.759259329912501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>905701.6842622866</v>
+        <v>1228110.788947384</v>
       </c>
     </row>
     <row r="3">
@@ -45646,28 +45646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.2825481462477</v>
+        <v>889.1352047488652</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.6405384643332</v>
+        <v>1216.554013014208</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.116248477599</v>
+        <v>1100.447805456412</v>
       </c>
       <c r="AD3" t="n">
-        <v>647282.5481462476</v>
+        <v>889135.2047488652</v>
       </c>
       <c r="AE3" t="n">
-        <v>885640.5384643332</v>
+        <v>1216554.013014208</v>
       </c>
       <c r="AF3" t="n">
         <v>5.220414202004953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.85416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>801116.248477599</v>
+        <v>1100447.805456412</v>
       </c>
     </row>
     <row r="4">
@@ -45752,28 +45752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>623.3003917053251</v>
+        <v>846.5421245024952</v>
       </c>
       <c r="AB4" t="n">
-        <v>852.827094003792</v>
+        <v>1158.276281547043</v>
       </c>
       <c r="AC4" t="n">
-        <v>771.4344731024133</v>
+        <v>1047.732018887163</v>
       </c>
       <c r="AD4" t="n">
-        <v>623300.3917053251</v>
+        <v>846542.1245024952</v>
       </c>
       <c r="AE4" t="n">
-        <v>852827.094003792</v>
+        <v>1158276.281547043</v>
       </c>
       <c r="AF4" t="n">
         <v>5.374981404248345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.44791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>771434.4731024134</v>
+        <v>1047732.018887163</v>
       </c>
     </row>
     <row r="5">
@@ -45858,28 +45858,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>606.3746643078416</v>
+        <v>838.9213534928068</v>
       </c>
       <c r="AB5" t="n">
-        <v>829.6685670681626</v>
+        <v>1147.849206446898</v>
       </c>
       <c r="AC5" t="n">
-        <v>750.4861634743237</v>
+        <v>1038.300089200085</v>
       </c>
       <c r="AD5" t="n">
-        <v>606374.6643078416</v>
+        <v>838921.3534928068</v>
       </c>
       <c r="AE5" t="n">
-        <v>829668.5670681626</v>
+        <v>1147849.206446898</v>
       </c>
       <c r="AF5" t="n">
         <v>5.432478836261571e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>750486.1634743237</v>
+        <v>1038300.089200085</v>
       </c>
     </row>
     <row r="6">
@@ -45964,28 +45964,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>607.4436093939389</v>
+        <v>839.990298578904</v>
       </c>
       <c r="AB6" t="n">
-        <v>831.1311448934898</v>
+        <v>1149.311784272225</v>
       </c>
       <c r="AC6" t="n">
-        <v>751.8091549247424</v>
+        <v>1039.623080650503</v>
       </c>
       <c r="AD6" t="n">
-        <v>607443.6093939389</v>
+        <v>839990.298578904</v>
       </c>
       <c r="AE6" t="n">
-        <v>831131.1448934898</v>
+        <v>1149311.784272225</v>
       </c>
       <c r="AF6" t="n">
         <v>5.435319424895955e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.92708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>751809.1549247424</v>
+        <v>1039623.080650504</v>
       </c>
     </row>
   </sheetData>
@@ -46261,28 +46261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.3072168573182</v>
+        <v>816.2653223578884</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.6336913348525</v>
+        <v>1116.850225134551</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.9858443022262</v>
+        <v>1010.259607156845</v>
       </c>
       <c r="AD2" t="n">
-        <v>579307.2168573182</v>
+        <v>816265.3223578884</v>
       </c>
       <c r="AE2" t="n">
-        <v>792633.6913348525</v>
+        <v>1116850.225134551</v>
       </c>
       <c r="AF2" t="n">
         <v>6.905125474692389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>716985.8443022262</v>
+        <v>1010259.607156845</v>
       </c>
     </row>
     <row r="3">
@@ -46367,28 +46367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>563.1985583638722</v>
+        <v>791.0731138310341</v>
       </c>
       <c r="AB3" t="n">
-        <v>770.593114120263</v>
+        <v>1082.381134026308</v>
       </c>
       <c r="AC3" t="n">
-        <v>697.0487888428527</v>
+        <v>979.0801977262992</v>
       </c>
       <c r="AD3" t="n">
-        <v>563198.5583638721</v>
+        <v>791073.1138310342</v>
       </c>
       <c r="AE3" t="n">
-        <v>770593.1141202629</v>
+        <v>1082381.134026308</v>
       </c>
       <c r="AF3" t="n">
         <v>7.054496212057923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>697048.7888428527</v>
+        <v>979080.1977262992</v>
       </c>
     </row>
   </sheetData>
@@ -46664,28 +46664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1110.071617560978</v>
+        <v>1437.030763451097</v>
       </c>
       <c r="AB2" t="n">
-        <v>1518.848960050364</v>
+        <v>1966.208887876716</v>
       </c>
       <c r="AC2" t="n">
-        <v>1373.89214702106</v>
+        <v>1778.556671209267</v>
       </c>
       <c r="AD2" t="n">
-        <v>1110071.617560979</v>
+        <v>1437030.763451097</v>
       </c>
       <c r="AE2" t="n">
-        <v>1518848.960050364</v>
+        <v>1966208.887876716</v>
       </c>
       <c r="AF2" t="n">
         <v>2.733914512181948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1373892.14702106</v>
+        <v>1778556.671209267</v>
       </c>
     </row>
     <row r="3">
@@ -46770,28 +46770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>887.2151762326985</v>
+        <v>1156.485876388295</v>
       </c>
       <c r="AB3" t="n">
-        <v>1213.926945292709</v>
+        <v>1582.354996630481</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.07146139114</v>
+        <v>1431.337256601254</v>
       </c>
       <c r="AD3" t="n">
-        <v>887215.1762326985</v>
+        <v>1156485.876388295</v>
       </c>
       <c r="AE3" t="n">
-        <v>1213926.945292709</v>
+        <v>1582354.996630481</v>
       </c>
       <c r="AF3" t="n">
         <v>3.286780049049635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.13020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1098071.46139114</v>
+        <v>1431337.256601254</v>
       </c>
     </row>
     <row r="4">
@@ -46876,28 +46876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>815.9933825155557</v>
+        <v>1075.676801867859</v>
       </c>
       <c r="AB4" t="n">
-        <v>1116.478145045132</v>
+        <v>1471.788455826861</v>
       </c>
       <c r="AC4" t="n">
-        <v>1009.923037868943</v>
+        <v>1331.323031270816</v>
       </c>
       <c r="AD4" t="n">
-        <v>815993.3825155557</v>
+        <v>1075676.801867859</v>
       </c>
       <c r="AE4" t="n">
-        <v>1116478.145045132</v>
+        <v>1471788.455826861</v>
       </c>
       <c r="AF4" t="n">
         <v>3.491181620270733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.90104166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1009923.037868943</v>
+        <v>1331323.031270816</v>
       </c>
     </row>
     <row r="5">
@@ -46982,28 +46982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>789.887389319967</v>
+        <v>1039.883053672348</v>
       </c>
       <c r="AB5" t="n">
-        <v>1080.758773439792</v>
+        <v>1422.813870437041</v>
       </c>
       <c r="AC5" t="n">
-        <v>977.612672957163</v>
+        <v>1287.022511574338</v>
       </c>
       <c r="AD5" t="n">
-        <v>789887.389319967</v>
+        <v>1039883.053672348</v>
       </c>
       <c r="AE5" t="n">
-        <v>1080758.773439792</v>
+        <v>1422813.870437041</v>
       </c>
       <c r="AF5" t="n">
         <v>3.598149688015652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.36458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>977612.672957163</v>
+        <v>1287022.511574338</v>
       </c>
     </row>
     <row r="6">
@@ -47088,28 +47088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>770.0331570285216</v>
+        <v>1010.442551607466</v>
       </c>
       <c r="AB6" t="n">
-        <v>1053.593336911726</v>
+        <v>1382.532076688585</v>
       </c>
       <c r="AC6" t="n">
-        <v>953.039867564406</v>
+        <v>1250.585155685382</v>
       </c>
       <c r="AD6" t="n">
-        <v>770033.1570285216</v>
+        <v>1010442.551607466</v>
       </c>
       <c r="AE6" t="n">
-        <v>1053593.336911726</v>
+        <v>1382532.076688585</v>
       </c>
       <c r="AF6" t="n">
         <v>3.663708516783195e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.47916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>953039.867564406</v>
+        <v>1250585.155685382</v>
       </c>
     </row>
     <row r="7">
@@ -47194,28 +47194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>751.7798427712581</v>
+        <v>992.2565571579072</v>
       </c>
       <c r="AB7" t="n">
-        <v>1028.618347065547</v>
+        <v>1357.649196773247</v>
       </c>
       <c r="AC7" t="n">
-        <v>930.4484556965278</v>
+        <v>1228.077062905823</v>
       </c>
       <c r="AD7" t="n">
-        <v>751779.8427712581</v>
+        <v>992256.5571579072</v>
       </c>
       <c r="AE7" t="n">
-        <v>1028618.347065547</v>
+        <v>1357649.196773247</v>
       </c>
       <c r="AF7" t="n">
         <v>3.714582724669685e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.80208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>930448.4556965278</v>
+        <v>1228077.062905823</v>
       </c>
     </row>
     <row r="8">
@@ -47300,28 +47300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>746.3389313884275</v>
+        <v>986.7141605485912</v>
       </c>
       <c r="AB8" t="n">
-        <v>1021.173852075489</v>
+        <v>1350.0658452191</v>
       </c>
       <c r="AC8" t="n">
-        <v>923.7144528599065</v>
+        <v>1221.217455780703</v>
       </c>
       <c r="AD8" t="n">
-        <v>746338.9313884275</v>
+        <v>986714.1605485912</v>
       </c>
       <c r="AE8" t="n">
-        <v>1021173.852075489</v>
+        <v>1350065.8452191</v>
       </c>
       <c r="AF8" t="n">
         <v>3.741376938125635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH8" t="n">
-        <v>923714.4528599065</v>
+        <v>1221217.455780703</v>
       </c>
     </row>
     <row r="9">
@@ -47406,28 +47406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>740.2084593142266</v>
+        <v>971.0315841197348</v>
       </c>
       <c r="AB9" t="n">
-        <v>1012.785869726227</v>
+        <v>1328.608252282696</v>
       </c>
       <c r="AC9" t="n">
-        <v>916.1270077734514</v>
+        <v>1201.807745398228</v>
       </c>
       <c r="AD9" t="n">
-        <v>740208.4593142266</v>
+        <v>971031.5841197348</v>
       </c>
       <c r="AE9" t="n">
-        <v>1012785.869726227</v>
+        <v>1328608.252282696</v>
       </c>
       <c r="AF9" t="n">
         <v>3.773529994272774e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.02083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>916127.0077734514</v>
+        <v>1201807.745398229</v>
       </c>
     </row>
     <row r="10">
@@ -47512,28 +47512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>725.3622310839424</v>
+        <v>965.8047800518109</v>
       </c>
       <c r="AB10" t="n">
-        <v>992.4726052921885</v>
+        <v>1321.456708366641</v>
       </c>
       <c r="AC10" t="n">
-        <v>897.7524127871513</v>
+        <v>1195.338734796267</v>
       </c>
       <c r="AD10" t="n">
-        <v>725362.2310839425</v>
+        <v>965804.7800518109</v>
       </c>
       <c r="AE10" t="n">
-        <v>992472.6052921885</v>
+        <v>1321456.708366641</v>
       </c>
       <c r="AF10" t="n">
         <v>3.793573457845016e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>897752.4127871513</v>
+        <v>1195338.734796267</v>
       </c>
     </row>
     <row r="11">
@@ -47618,28 +47618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>722.3259954202431</v>
+        <v>962.7685443881114</v>
       </c>
       <c r="AB11" t="n">
-        <v>988.3182937078512</v>
+        <v>1317.302396782304</v>
       </c>
       <c r="AC11" t="n">
-        <v>893.9945828698103</v>
+        <v>1191.580904878926</v>
       </c>
       <c r="AD11" t="n">
-        <v>722325.9954202431</v>
+        <v>962768.5443881114</v>
       </c>
       <c r="AE11" t="n">
-        <v>988318.2937078512</v>
+        <v>1317302.396782304</v>
       </c>
       <c r="AF11" t="n">
         <v>3.80338640355226e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH11" t="n">
-        <v>893994.5828698103</v>
+        <v>1191580.904878926</v>
       </c>
     </row>
     <row r="12">
@@ -47724,28 +47724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>718.7827756152637</v>
+        <v>959.2253245831321</v>
       </c>
       <c r="AB12" t="n">
-        <v>983.4703040548528</v>
+        <v>1312.454407129305</v>
       </c>
       <c r="AC12" t="n">
-        <v>889.6092785450981</v>
+        <v>1187.195600554213</v>
       </c>
       <c r="AD12" t="n">
-        <v>718782.7756152637</v>
+        <v>959225.3245831321</v>
       </c>
       <c r="AE12" t="n">
-        <v>983470.3040548528</v>
+        <v>1312454.407129305</v>
       </c>
       <c r="AF12" t="n">
         <v>3.809093223041579e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>889609.278545098</v>
+        <v>1187195.600554213</v>
       </c>
     </row>
     <row r="13">
@@ -47830,28 +47830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>713.6287875608031</v>
+        <v>944.4177469475306</v>
       </c>
       <c r="AB13" t="n">
-        <v>976.4183902208345</v>
+        <v>1292.194026144055</v>
       </c>
       <c r="AC13" t="n">
-        <v>883.2303894699751</v>
+        <v>1168.868841894572</v>
       </c>
       <c r="AD13" t="n">
-        <v>713628.7875608031</v>
+        <v>944417.7469475307</v>
       </c>
       <c r="AE13" t="n">
-        <v>976418.3902208344</v>
+        <v>1292194.026144055</v>
       </c>
       <c r="AF13" t="n">
         <v>3.824960965036271e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.39583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>883230.389469975</v>
+        <v>1168868.841894572</v>
       </c>
     </row>
     <row r="14">
@@ -47936,28 +47936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>710.5827062682849</v>
+        <v>941.3716656550125</v>
       </c>
       <c r="AB14" t="n">
-        <v>972.2506074127888</v>
+        <v>1288.02624333601</v>
       </c>
       <c r="AC14" t="n">
-        <v>879.4603740036094</v>
+        <v>1165.098826428206</v>
       </c>
       <c r="AD14" t="n">
-        <v>710582.7062682849</v>
+        <v>941371.6656550125</v>
       </c>
       <c r="AE14" t="n">
-        <v>972250.6074127888</v>
+        <v>1288026.24333601</v>
       </c>
       <c r="AF14" t="n">
         <v>3.834704315383888e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>48</v>
+        <v>47.265625</v>
       </c>
       <c r="AH14" t="n">
-        <v>879460.3740036094</v>
+        <v>1165098.826428206</v>
       </c>
     </row>
     <row r="15">
@@ -48042,28 +48042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>708.3853521352712</v>
+        <v>939.1743115219986</v>
       </c>
       <c r="AB15" t="n">
-        <v>969.2440905475768</v>
+        <v>1285.019726470797</v>
       </c>
       <c r="AC15" t="n">
-        <v>876.7407948883401</v>
+        <v>1162.379247312937</v>
       </c>
       <c r="AD15" t="n">
-        <v>708385.3521352712</v>
+        <v>939174.3115219986</v>
       </c>
       <c r="AE15" t="n">
-        <v>969244.0905475768</v>
+        <v>1285019.726470797</v>
       </c>
       <c r="AF15" t="n">
         <v>3.842011828144603e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>48</v>
+        <v>47.16145833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>876740.7948883402</v>
+        <v>1162379.247312937</v>
       </c>
     </row>
   </sheetData>
@@ -48339,28 +48339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1327.16223967899</v>
+        <v>1697.074402973905</v>
       </c>
       <c r="AB2" t="n">
-        <v>1815.881926594538</v>
+        <v>2322.012067787522</v>
       </c>
       <c r="AC2" t="n">
-        <v>1642.576704126646</v>
+        <v>2100.402495002285</v>
       </c>
       <c r="AD2" t="n">
-        <v>1327162.23967899</v>
+        <v>1697074.402973905</v>
       </c>
       <c r="AE2" t="n">
-        <v>1815881.926594538</v>
+        <v>2322012.067787522</v>
       </c>
       <c r="AF2" t="n">
         <v>2.219440322547513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.77604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1642576.704126646</v>
+        <v>2100402.495002286</v>
       </c>
     </row>
     <row r="3">
@@ -48445,28 +48445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1002.060621087553</v>
+        <v>1294.11631945757</v>
       </c>
       <c r="AB3" t="n">
-        <v>1371.063549566563</v>
+        <v>1770.667040664483</v>
       </c>
       <c r="AC3" t="n">
-        <v>1240.211168695707</v>
+        <v>1601.677063450264</v>
       </c>
       <c r="AD3" t="n">
-        <v>1002060.621087553</v>
+        <v>1294116.31945757</v>
       </c>
       <c r="AE3" t="n">
-        <v>1371063.549566563</v>
+        <v>1770667.040664484</v>
       </c>
       <c r="AF3" t="n">
         <v>2.792898977275384e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1240211.168695707</v>
+        <v>1601677.063450264</v>
       </c>
     </row>
     <row r="4">
@@ -48551,28 +48551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>915.7891715616076</v>
+        <v>1188.27072711922</v>
       </c>
       <c r="AB4" t="n">
-        <v>1253.023146297428</v>
+        <v>1625.844431649181</v>
       </c>
       <c r="AC4" t="n">
-        <v>1133.436375843832</v>
+        <v>1470.676120979574</v>
       </c>
       <c r="AD4" t="n">
-        <v>915789.1715616076</v>
+        <v>1188270.727119219</v>
       </c>
       <c r="AE4" t="n">
-        <v>1253023.146297428</v>
+        <v>1625844.431649181</v>
       </c>
       <c r="AF4" t="n">
         <v>3.014006623949712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.32291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1133436.375843832</v>
+        <v>1470676.120979574</v>
       </c>
     </row>
     <row r="5">
@@ -48657,28 +48657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>874.8296882330482</v>
+        <v>1137.5749149977</v>
       </c>
       <c r="AB5" t="n">
-        <v>1196.98057420242</v>
+        <v>1556.480184963135</v>
       </c>
       <c r="AC5" t="n">
-        <v>1082.742428173328</v>
+        <v>1407.931900643912</v>
       </c>
       <c r="AD5" t="n">
-        <v>874829.6882330482</v>
+        <v>1137574.9149977</v>
       </c>
       <c r="AE5" t="n">
-        <v>1196980.57420242</v>
+        <v>1556480.184963135</v>
       </c>
       <c r="AF5" t="n">
         <v>3.128019184649529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1082742.428173328</v>
+        <v>1407931.900643912</v>
       </c>
     </row>
     <row r="6">
@@ -48763,28 +48763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>839.4325966433136</v>
+        <v>1102.210977796889</v>
       </c>
       <c r="AB6" t="n">
-        <v>1148.548711879877</v>
+        <v>1508.093685938185</v>
       </c>
       <c r="AC6" t="n">
-        <v>1038.932834816303</v>
+        <v>1364.163341175026</v>
       </c>
       <c r="AD6" t="n">
-        <v>839432.5966433135</v>
+        <v>1102210.977796889</v>
       </c>
       <c r="AE6" t="n">
-        <v>1148548.711879877</v>
+        <v>1508093.685938185</v>
       </c>
       <c r="AF6" t="n">
         <v>3.213418554440126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.96354166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1038932.834816303</v>
+        <v>1364163.341175026</v>
       </c>
     </row>
     <row r="7">
@@ -48869,28 +48869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>831.4590485003656</v>
+        <v>1084.467946472058</v>
       </c>
       <c r="AB7" t="n">
-        <v>1137.638951542579</v>
+        <v>1483.816887712254</v>
       </c>
       <c r="AC7" t="n">
-        <v>1029.064286693651</v>
+        <v>1342.203486499077</v>
       </c>
       <c r="AD7" t="n">
-        <v>831459.0485003656</v>
+        <v>1084467.946472058</v>
       </c>
       <c r="AE7" t="n">
-        <v>1137638.951542579</v>
+        <v>1483816.887712254</v>
       </c>
       <c r="AF7" t="n">
         <v>3.255992467067691e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.28645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1029064.286693651</v>
+        <v>1342203.486499077</v>
       </c>
     </row>
     <row r="8">
@@ -48975,28 +48975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>814.2860330508689</v>
+        <v>1067.362250830266</v>
       </c>
       <c r="AB8" t="n">
-        <v>1114.142074184606</v>
+        <v>1460.412120285123</v>
       </c>
       <c r="AC8" t="n">
-        <v>1007.809918332648</v>
+        <v>1321.032437226394</v>
       </c>
       <c r="AD8" t="n">
-        <v>814286.0330508689</v>
+        <v>1067362.250830265</v>
       </c>
       <c r="AE8" t="n">
-        <v>1114142.074184606</v>
+        <v>1460412.120285123</v>
       </c>
       <c r="AF8" t="n">
         <v>3.294353008726207e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.71354166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1007809.918332648</v>
+        <v>1321032.437226394</v>
       </c>
     </row>
     <row r="9">
@@ -49081,28 +49081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>807.8679697709996</v>
+        <v>1051.174704368513</v>
       </c>
       <c r="AB9" t="n">
-        <v>1105.36059686012</v>
+        <v>1438.263605072004</v>
       </c>
       <c r="AC9" t="n">
-        <v>999.8665328791307</v>
+        <v>1300.997745219579</v>
       </c>
       <c r="AD9" t="n">
-        <v>807867.9697709996</v>
+        <v>1051174.704368513</v>
       </c>
       <c r="AE9" t="n">
-        <v>1105360.59686012</v>
+        <v>1438263.605072004</v>
       </c>
       <c r="AF9" t="n">
         <v>3.325984734061015e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.24479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>999866.5328791307</v>
+        <v>1300997.745219579</v>
       </c>
     </row>
     <row r="10">
@@ -49187,28 +49187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>793.7140156215044</v>
+        <v>1046.75606798212</v>
       </c>
       <c r="AB10" t="n">
-        <v>1085.994532364393</v>
+        <v>1432.217831831662</v>
       </c>
       <c r="AC10" t="n">
-        <v>982.3487383984341</v>
+        <v>1295.528972092</v>
       </c>
       <c r="AD10" t="n">
-        <v>793714.0156215044</v>
+        <v>1046756.06798212</v>
       </c>
       <c r="AE10" t="n">
-        <v>1085994.532364393</v>
+        <v>1432217.831831662</v>
       </c>
       <c r="AF10" t="n">
         <v>3.344536143551608e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>982348.7383984341</v>
+        <v>1295528.972092</v>
       </c>
     </row>
     <row r="11">
@@ -49293,28 +49293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>789.3474052778377</v>
+        <v>1032.721459683055</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080.019943450936</v>
+        <v>1413.015061593662</v>
       </c>
       <c r="AC11" t="n">
-        <v>976.944355865489</v>
+        <v>1278.158887294257</v>
       </c>
       <c r="AD11" t="n">
-        <v>789347.4052778376</v>
+        <v>1032721.459683055</v>
       </c>
       <c r="AE11" t="n">
-        <v>1080019.943450936</v>
+        <v>1413015.061593662</v>
       </c>
       <c r="AF11" t="n">
         <v>3.361326741293943e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.72395833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>976944.355865489</v>
+        <v>1278158.887294257</v>
       </c>
     </row>
     <row r="12">
@@ -49399,28 +49399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>785.81961981928</v>
+        <v>1029.193674224497</v>
       </c>
       <c r="AB12" t="n">
-        <v>1075.193071751627</v>
+        <v>1408.188189894353</v>
       </c>
       <c r="AC12" t="n">
-        <v>972.5781540266051</v>
+        <v>1273.792685455373</v>
       </c>
       <c r="AD12" t="n">
-        <v>785819.61981928</v>
+        <v>1029193.674224497</v>
       </c>
       <c r="AE12" t="n">
-        <v>1075193.071751627</v>
+        <v>1408188.189894353</v>
       </c>
       <c r="AF12" t="n">
         <v>3.376356527288017e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>972578.1540266052</v>
+        <v>1273792.685455373</v>
       </c>
     </row>
     <row r="13">
@@ -49505,28 +49505,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>782.7410580542817</v>
+        <v>1026.013627233014</v>
       </c>
       <c r="AB13" t="n">
-        <v>1070.980847728197</v>
+        <v>1403.837109306833</v>
       </c>
       <c r="AC13" t="n">
-        <v>968.7679387520775</v>
+        <v>1269.856865892346</v>
       </c>
       <c r="AD13" t="n">
-        <v>782741.0580542816</v>
+        <v>1026013.627233014</v>
       </c>
       <c r="AE13" t="n">
-        <v>1070980.847728197</v>
+        <v>1403837.109306833</v>
       </c>
       <c r="AF13" t="n">
         <v>3.385412130564781e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.38541666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>968767.9387520775</v>
+        <v>1269856.865892346</v>
       </c>
     </row>
     <row r="14">
@@ -49611,28 +49611,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>779.8138664110368</v>
+        <v>1023.086435589769</v>
       </c>
       <c r="AB14" t="n">
-        <v>1066.975734983328</v>
+        <v>1399.831996561965</v>
       </c>
       <c r="AC14" t="n">
-        <v>965.1450683463679</v>
+        <v>1266.233995486637</v>
       </c>
       <c r="AD14" t="n">
-        <v>779813.8664110368</v>
+        <v>1023086.435589769</v>
       </c>
       <c r="AE14" t="n">
-        <v>1066975.734983328</v>
+        <v>1399831.996561965</v>
       </c>
       <c r="AF14" t="n">
         <v>3.393084238896484e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.25520833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>965145.0683463679</v>
+        <v>1266233.995486637</v>
       </c>
     </row>
     <row r="15">
@@ -49717,28 +49717,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>776.1008131099995</v>
+        <v>1009.705384333333</v>
       </c>
       <c r="AB15" t="n">
-        <v>1061.895371648498</v>
+        <v>1381.523451902592</v>
       </c>
       <c r="AC15" t="n">
-        <v>960.5495677578796</v>
+        <v>1249.67279263335</v>
       </c>
       <c r="AD15" t="n">
-        <v>776100.8131099995</v>
+        <v>1009705.384333333</v>
       </c>
       <c r="AE15" t="n">
-        <v>1061895.371648498</v>
+        <v>1381523.451902592</v>
       </c>
       <c r="AF15" t="n">
         <v>3.405347035000435e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>960549.5677578796</v>
+        <v>1249672.79263335</v>
       </c>
     </row>
     <row r="16">
@@ -49823,28 +49823,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>762.8538805554807</v>
+        <v>1006.193769541917</v>
       </c>
       <c r="AB16" t="n">
-        <v>1043.770334113987</v>
+        <v>1376.718705623465</v>
       </c>
       <c r="AC16" t="n">
-        <v>944.1543583670124</v>
+        <v>1245.3266045956</v>
       </c>
       <c r="AD16" t="n">
-        <v>762853.8805554807</v>
+        <v>1006193.769541917</v>
       </c>
       <c r="AE16" t="n">
-        <v>1043770.334113987</v>
+        <v>1376718.705623465</v>
       </c>
       <c r="AF16" t="n">
         <v>3.414905727348131e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH16" t="n">
-        <v>944154.3583670123</v>
+        <v>1245326.6045956</v>
       </c>
     </row>
     <row r="17">
@@ -49929,28 +49929,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>760.4835203675773</v>
+        <v>1003.823409354014</v>
       </c>
       <c r="AB17" t="n">
-        <v>1040.527102731987</v>
+        <v>1373.475474241465</v>
       </c>
       <c r="AC17" t="n">
-        <v>941.2206564362061</v>
+        <v>1242.392902664794</v>
       </c>
       <c r="AD17" t="n">
-        <v>760483.5203675773</v>
+        <v>1003823.409354014</v>
       </c>
       <c r="AE17" t="n">
-        <v>1040527.102731987</v>
+        <v>1373475.474241465</v>
       </c>
       <c r="AF17" t="n">
         <v>3.414968613481997e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>941220.6564362061</v>
+        <v>1242392.902664794</v>
       </c>
     </row>
     <row r="18">
@@ -50035,28 +50035,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>758.1050966802665</v>
+        <v>1001.444985666703</v>
       </c>
       <c r="AB18" t="n">
-        <v>1037.27283851436</v>
+        <v>1370.221210023838</v>
       </c>
       <c r="AC18" t="n">
-        <v>938.2769746281215</v>
+        <v>1239.449220856709</v>
       </c>
       <c r="AD18" t="n">
-        <v>758105.0966802664</v>
+        <v>1001444.985666703</v>
       </c>
       <c r="AE18" t="n">
-        <v>1037272.83851436</v>
+        <v>1370221.210023839</v>
       </c>
       <c r="AF18" t="n">
         <v>3.425407711703823e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>48</v>
+        <v>47.8125</v>
       </c>
       <c r="AH18" t="n">
-        <v>938276.9746281215</v>
+        <v>1239449.220856709</v>
       </c>
     </row>
     <row r="19">
@@ -50141,28 +50141,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>755.1906131622219</v>
+        <v>998.5305021486582</v>
       </c>
       <c r="AB19" t="n">
-        <v>1033.285113587033</v>
+        <v>1366.233485096511</v>
       </c>
       <c r="AC19" t="n">
-        <v>934.6698325710515</v>
+        <v>1235.842078799639</v>
       </c>
       <c r="AD19" t="n">
-        <v>755190.6131622219</v>
+        <v>998530.5021486583</v>
       </c>
       <c r="AE19" t="n">
-        <v>1033285.113587033</v>
+        <v>1366233.485096511</v>
       </c>
       <c r="AF19" t="n">
         <v>3.423395355420098e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>934669.8325710515</v>
+        <v>1235842.078799639</v>
       </c>
     </row>
     <row r="20">
@@ -50247,28 +50247,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>752.5695126244726</v>
+        <v>995.9094016109092</v>
       </c>
       <c r="AB20" t="n">
-        <v>1029.69880819649</v>
+        <v>1362.647179705968</v>
       </c>
       <c r="AC20" t="n">
-        <v>931.4257991335706</v>
+        <v>1232.598045362158</v>
       </c>
       <c r="AD20" t="n">
-        <v>752569.5126244726</v>
+        <v>995909.4016109091</v>
       </c>
       <c r="AE20" t="n">
-        <v>1029698.80819649</v>
+        <v>1362647.179705968</v>
       </c>
       <c r="AF20" t="n">
         <v>3.436915874201378e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH20" t="n">
-        <v>931425.7991335706</v>
+        <v>1232598.045362158</v>
       </c>
     </row>
     <row r="21">
@@ -50353,28 +50353,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>749.8896577794161</v>
+        <v>993.2295467658525</v>
       </c>
       <c r="AB21" t="n">
-        <v>1026.032112570632</v>
+        <v>1358.98048408011</v>
       </c>
       <c r="AC21" t="n">
-        <v>928.1090477920048</v>
+        <v>1229.281294020593</v>
       </c>
       <c r="AD21" t="n">
-        <v>749889.6577794161</v>
+        <v>993229.5467658526</v>
       </c>
       <c r="AE21" t="n">
-        <v>1026032.112570632</v>
+        <v>1358980.48408011</v>
       </c>
       <c r="AF21" t="n">
         <v>3.435658151524049e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH21" t="n">
-        <v>928109.0477920049</v>
+        <v>1229281.294020593</v>
       </c>
     </row>
     <row r="22">
@@ -50459,28 +50459,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>750.0591739916208</v>
+        <v>993.3990629780571</v>
       </c>
       <c r="AB22" t="n">
-        <v>1026.264052130698</v>
+        <v>1359.212423640176</v>
       </c>
       <c r="AC22" t="n">
-        <v>928.3188513659873</v>
+        <v>1229.491097594575</v>
       </c>
       <c r="AD22" t="n">
-        <v>750059.1739916208</v>
+        <v>993399.0629780572</v>
       </c>
       <c r="AE22" t="n">
-        <v>1026264.052130698</v>
+        <v>1359212.423640176</v>
       </c>
       <c r="AF22" t="n">
         <v>3.435532379256316e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH22" t="n">
-        <v>928318.8513659872</v>
+        <v>1229491.097594575</v>
       </c>
     </row>
   </sheetData>
@@ -50756,28 +50756,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.6894208519202</v>
+        <v>780.3296695688637</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.9505367797574</v>
+        <v>1067.681479619496</v>
       </c>
       <c r="AC2" t="n">
-        <v>686.5173627432653</v>
+        <v>965.783457704979</v>
       </c>
       <c r="AD2" t="n">
-        <v>554689.4208519201</v>
+        <v>780329.6695688637</v>
       </c>
       <c r="AE2" t="n">
-        <v>758950.5367797574</v>
+        <v>1067681.479619496</v>
       </c>
       <c r="AF2" t="n">
         <v>8.072111334972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>686517.3627432652</v>
+        <v>965783.457704979</v>
       </c>
     </row>
   </sheetData>
@@ -51053,28 +51053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>861.1421768273847</v>
+        <v>1144.367081805259</v>
       </c>
       <c r="AB2" t="n">
-        <v>1178.252717246806</v>
+        <v>1565.773527238488</v>
       </c>
       <c r="AC2" t="n">
-        <v>1065.801931600845</v>
+        <v>1416.338299375794</v>
       </c>
       <c r="AD2" t="n">
-        <v>861142.1768273846</v>
+        <v>1144367.081805259</v>
       </c>
       <c r="AE2" t="n">
-        <v>1178252.717246806</v>
+        <v>1565773.527238488</v>
       </c>
       <c r="AF2" t="n">
         <v>3.734287594645075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.99479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1065801.931600845</v>
+        <v>1416338.299375794</v>
       </c>
     </row>
     <row r="3">
@@ -51159,28 +51159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>743.6767756055228</v>
+        <v>989.0960947524153</v>
       </c>
       <c r="AB3" t="n">
-        <v>1017.531373087294</v>
+        <v>1353.324912680293</v>
       </c>
       <c r="AC3" t="n">
-        <v>920.4196069540939</v>
+        <v>1224.165482417529</v>
       </c>
       <c r="AD3" t="n">
-        <v>743676.7756055228</v>
+        <v>989096.0947524153</v>
       </c>
       <c r="AE3" t="n">
-        <v>1017531.373087295</v>
+        <v>1353324.912680293</v>
       </c>
       <c r="AF3" t="n">
         <v>4.23681700902535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.11979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>920419.6069540939</v>
+        <v>1224165.482417529</v>
       </c>
     </row>
     <row r="4">
@@ -51265,28 +51265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>705.1226939516461</v>
+        <v>941.0989052380241</v>
       </c>
       <c r="AB4" t="n">
-        <v>964.7799776824205</v>
+        <v>1287.653040500146</v>
       </c>
       <c r="AC4" t="n">
-        <v>872.7027306896126</v>
+        <v>1164.761241547204</v>
       </c>
       <c r="AD4" t="n">
-        <v>705122.6939516461</v>
+        <v>941098.9052380242</v>
       </c>
       <c r="AE4" t="n">
-        <v>964779.9776824205</v>
+        <v>1287653.040500146</v>
       </c>
       <c r="AF4" t="n">
         <v>4.413808500882553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>872702.7306896126</v>
+        <v>1164761.241547204</v>
       </c>
     </row>
     <row r="5">
@@ -51371,28 +51371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>684.1925444672966</v>
+        <v>910.759813311941</v>
       </c>
       <c r="AB5" t="n">
-        <v>936.1424237849066</v>
+        <v>1246.141756460607</v>
       </c>
       <c r="AC5" t="n">
-        <v>846.7983047430182</v>
+        <v>1127.211736194946</v>
       </c>
       <c r="AD5" t="n">
-        <v>684192.5444672966</v>
+        <v>910759.813311941</v>
       </c>
       <c r="AE5" t="n">
-        <v>936142.4237849065</v>
+        <v>1246141.756460607</v>
       </c>
       <c r="AF5" t="n">
         <v>4.509124407681593e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>846798.3047430182</v>
+        <v>1127211.736194946</v>
       </c>
     </row>
     <row r="6">
@@ -51477,28 +51477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>666.7136493081136</v>
+        <v>893.2467527339772</v>
       </c>
       <c r="AB6" t="n">
-        <v>912.2270283136806</v>
+        <v>1222.179614356134</v>
       </c>
       <c r="AC6" t="n">
-        <v>825.1653610500978</v>
+        <v>1105.536507301846</v>
       </c>
       <c r="AD6" t="n">
-        <v>666713.6493081136</v>
+        <v>893246.7527339773</v>
       </c>
       <c r="AE6" t="n">
-        <v>912227.0283136807</v>
+        <v>1222179.614356134</v>
       </c>
       <c r="AF6" t="n">
         <v>4.561606377306543e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.47395833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>825165.3610500977</v>
+        <v>1105536.507301846</v>
       </c>
     </row>
     <row r="7">
@@ -51583,28 +51583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>659.6814857615014</v>
+        <v>886.214589187365</v>
       </c>
       <c r="AB7" t="n">
-        <v>902.6053119120456</v>
+        <v>1212.557897954498</v>
       </c>
       <c r="AC7" t="n">
-        <v>816.461927757671</v>
+        <v>1096.833074009419</v>
       </c>
       <c r="AD7" t="n">
-        <v>659681.4857615015</v>
+        <v>886214.589187365</v>
       </c>
       <c r="AE7" t="n">
-        <v>902605.3119120456</v>
+        <v>1212557.897954498</v>
       </c>
       <c r="AF7" t="n">
         <v>4.601362924819581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.08333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>816461.927757671</v>
+        <v>1096833.074009419</v>
       </c>
     </row>
     <row r="8">
@@ -51689,28 +51689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>644.9141869500872</v>
+        <v>871.5146101836551</v>
       </c>
       <c r="AB8" t="n">
-        <v>882.4000421910247</v>
+        <v>1192.444738164319</v>
       </c>
       <c r="AC8" t="n">
-        <v>798.1850206205501</v>
+        <v>1078.639485960617</v>
       </c>
       <c r="AD8" t="n">
-        <v>644914.1869500872</v>
+        <v>871514.6101836552</v>
       </c>
       <c r="AE8" t="n">
-        <v>882400.0421910246</v>
+        <v>1192444.738164319</v>
       </c>
       <c r="AF8" t="n">
         <v>4.62215609820506e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.84895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>798185.02062055</v>
+        <v>1078639.485960617</v>
       </c>
     </row>
     <row r="9">
@@ -51795,28 +51795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>645.5628767957406</v>
+        <v>881.5380770522617</v>
       </c>
       <c r="AB9" t="n">
-        <v>883.2876082560241</v>
+        <v>1206.159287738096</v>
       </c>
       <c r="AC9" t="n">
-        <v>798.9878786260126</v>
+        <v>1091.045138171563</v>
       </c>
       <c r="AD9" t="n">
-        <v>645562.8767957407</v>
+        <v>881538.0770522617</v>
       </c>
       <c r="AE9" t="n">
-        <v>883287.6082560241</v>
+        <v>1206159.287738096</v>
       </c>
       <c r="AF9" t="n">
         <v>4.621407543963183e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.875</v>
       </c>
       <c r="AH9" t="n">
-        <v>798987.8786260126</v>
+        <v>1091045.138171563</v>
       </c>
     </row>
   </sheetData>
@@ -52092,28 +52092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1004.384252649418</v>
+        <v>1319.595038714108</v>
       </c>
       <c r="AB2" t="n">
-        <v>1374.242844780897</v>
+        <v>1805.528148393041</v>
       </c>
       <c r="AC2" t="n">
-        <v>1243.087036436953</v>
+        <v>1633.211075985081</v>
       </c>
       <c r="AD2" t="n">
-        <v>1004384.252649418</v>
+        <v>1319595.038714108</v>
       </c>
       <c r="AE2" t="n">
-        <v>1374242.844780897</v>
+        <v>1805528.148393041</v>
       </c>
       <c r="AF2" t="n">
         <v>3.067792811917711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.86458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1243087.036436953</v>
+        <v>1633211.075985081</v>
       </c>
     </row>
     <row r="3">
@@ -52198,28 +52198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>826.7248417290451</v>
+        <v>1094.195053466905</v>
       </c>
       <c r="AB3" t="n">
-        <v>1131.161400979596</v>
+        <v>1497.125944632278</v>
       </c>
       <c r="AC3" t="n">
-        <v>1023.2049444651</v>
+        <v>1354.242345706033</v>
       </c>
       <c r="AD3" t="n">
-        <v>826724.8417290451</v>
+        <v>1094195.053466905</v>
       </c>
       <c r="AE3" t="n">
-        <v>1131161.400979596</v>
+        <v>1497125.944632278</v>
       </c>
       <c r="AF3" t="n">
         <v>3.601247936467919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.56770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1023204.9444651</v>
+        <v>1354242.345706033</v>
       </c>
     </row>
     <row r="4">
@@ -52304,28 +52304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>771.0033584062105</v>
+        <v>1019.397839664607</v>
       </c>
       <c r="AB4" t="n">
-        <v>1054.920809238944</v>
+        <v>1394.78509688779</v>
       </c>
       <c r="AC4" t="n">
-        <v>954.2406477958335</v>
+        <v>1261.668764833998</v>
       </c>
       <c r="AD4" t="n">
-        <v>771003.3584062106</v>
+        <v>1019397.839664607</v>
       </c>
       <c r="AE4" t="n">
-        <v>1054920.809238944</v>
+        <v>1394785.09688779</v>
       </c>
       <c r="AF4" t="n">
         <v>3.796544502265351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.80729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>954240.6477958335</v>
+        <v>1261668.764833997</v>
       </c>
     </row>
     <row r="5">
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>747.4397177959897</v>
+        <v>986.2119312975591</v>
       </c>
       <c r="AB5" t="n">
-        <v>1022.679996601584</v>
+        <v>1349.378673001047</v>
       </c>
       <c r="AC5" t="n">
-        <v>925.0768530663184</v>
+        <v>1220.595866314689</v>
       </c>
       <c r="AD5" t="n">
-        <v>747439.7177959897</v>
+        <v>986211.9312975591</v>
       </c>
       <c r="AE5" t="n">
-        <v>1022679.996601584</v>
+        <v>1349378.673001047</v>
       </c>
       <c r="AF5" t="n">
         <v>3.897710641392879e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.47916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>925076.8530663184</v>
+        <v>1220595.866314689</v>
       </c>
     </row>
     <row r="6">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>727.400583221</v>
+        <v>966.240116530274</v>
       </c>
       <c r="AB6" t="n">
-        <v>995.2615686118603</v>
+        <v>1322.052354942164</v>
       </c>
       <c r="AC6" t="n">
-        <v>900.2752013619282</v>
+        <v>1195.877533698618</v>
       </c>
       <c r="AD6" t="n">
-        <v>727400.583221</v>
+        <v>966240.116530274</v>
       </c>
       <c r="AE6" t="n">
-        <v>995261.5686118603</v>
+        <v>1322052.354942164</v>
       </c>
       <c r="AF6" t="n">
         <v>3.969697088854049e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>900275.2013619283</v>
+        <v>1195877.533698617</v>
       </c>
     </row>
     <row r="7">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>721.1940741492551</v>
+        <v>950.4455051204832</v>
       </c>
       <c r="AB7" t="n">
-        <v>986.7695490880436</v>
+        <v>1300.441470802212</v>
       </c>
       <c r="AC7" t="n">
-        <v>892.5936482628402</v>
+        <v>1176.329162009916</v>
       </c>
       <c r="AD7" t="n">
-        <v>721194.0741492552</v>
+        <v>950445.5051204832</v>
       </c>
       <c r="AE7" t="n">
-        <v>986769.5490880436</v>
+        <v>1300441.470802212</v>
       </c>
       <c r="AF7" t="n">
         <v>4.004949711273304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.15104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>892593.6482628402</v>
+        <v>1176329.162009916</v>
       </c>
     </row>
     <row r="8">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>705.549437728716</v>
+        <v>944.3548056192093</v>
       </c>
       <c r="AB8" t="n">
-        <v>965.3638673448144</v>
+        <v>1292.10790704187</v>
       </c>
       <c r="AC8" t="n">
-        <v>873.2308947421219</v>
+        <v>1168.790941878631</v>
       </c>
       <c r="AD8" t="n">
-        <v>705549.4377287161</v>
+        <v>944354.8056192093</v>
       </c>
       <c r="AE8" t="n">
-        <v>965363.8673448144</v>
+        <v>1292107.907041871</v>
       </c>
       <c r="AF8" t="n">
         <v>4.035536545431188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>873230.8947421219</v>
+        <v>1168790.941878631</v>
       </c>
     </row>
     <row r="9">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>700.4600579328304</v>
+        <v>939.2654258233235</v>
       </c>
       <c r="AB9" t="n">
-        <v>958.4003533804931</v>
+        <v>1285.144393077549</v>
       </c>
       <c r="AC9" t="n">
-        <v>866.9319687772023</v>
+        <v>1162.492015913712</v>
       </c>
       <c r="AD9" t="n">
-        <v>700460.0579328304</v>
+        <v>939265.4258233235</v>
       </c>
       <c r="AE9" t="n">
-        <v>958400.3533804931</v>
+        <v>1285144.393077549</v>
       </c>
       <c r="AF9" t="n">
         <v>4.056051201754999e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>48</v>
+        <v>47.55208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>866931.9687772023</v>
+        <v>1162492.015913712</v>
       </c>
     </row>
     <row r="10">
@@ -52940,28 +52940,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>695.4756190481102</v>
+        <v>924.6928846005574</v>
       </c>
       <c r="AB10" t="n">
-        <v>951.580424200495</v>
+        <v>1265.205599281415</v>
       </c>
       <c r="AC10" t="n">
-        <v>860.7629240663126</v>
+        <v>1144.456152613208</v>
       </c>
       <c r="AD10" t="n">
-        <v>695475.6190481102</v>
+        <v>924692.8846005574</v>
       </c>
       <c r="AE10" t="n">
-        <v>951580.424200495</v>
+        <v>1265205.599281415</v>
       </c>
       <c r="AF10" t="n">
         <v>4.077306459390138e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>48</v>
+        <v>47.29166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>860762.9240663126</v>
+        <v>1144456.152613208</v>
       </c>
     </row>
     <row r="11">
@@ -53046,28 +53046,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>690.590880745192</v>
+        <v>919.8081462976393</v>
       </c>
       <c r="AB11" t="n">
-        <v>944.8969097549976</v>
+        <v>1258.522084835918</v>
       </c>
       <c r="AC11" t="n">
-        <v>854.717274859122</v>
+        <v>1138.410503406017</v>
       </c>
       <c r="AD11" t="n">
-        <v>690590.8807451919</v>
+        <v>919808.1462976392</v>
       </c>
       <c r="AE11" t="n">
-        <v>944896.9097549976</v>
+        <v>1258522.084835918</v>
       </c>
       <c r="AF11" t="n">
         <v>4.085230893421358e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>48</v>
+        <v>47.21354166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>854717.274859122</v>
+        <v>1138410.503406017</v>
       </c>
     </row>
     <row r="12">
@@ -53152,28 +53152,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>688.2284280443264</v>
+        <v>917.4456935967737</v>
       </c>
       <c r="AB12" t="n">
-        <v>941.664497745616</v>
+        <v>1255.289672826536</v>
       </c>
       <c r="AC12" t="n">
-        <v>851.793359715197</v>
+        <v>1135.486588262092</v>
       </c>
       <c r="AD12" t="n">
-        <v>688228.4280443264</v>
+        <v>917445.6935967737</v>
       </c>
       <c r="AE12" t="n">
-        <v>941664.497745616</v>
+        <v>1255289.672826536</v>
       </c>
       <c r="AF12" t="n">
         <v>4.094192169288437e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>48</v>
+        <v>47.109375</v>
       </c>
       <c r="AH12" t="n">
-        <v>851793.359715197</v>
+        <v>1135486.588262092</v>
       </c>
     </row>
     <row r="13">
@@ -53258,28 +53258,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>688.7996396047664</v>
+        <v>918.0169051572138</v>
       </c>
       <c r="AB13" t="n">
-        <v>942.4460546026856</v>
+        <v>1256.071229683606</v>
       </c>
       <c r="AC13" t="n">
-        <v>852.5003258827497</v>
+        <v>1136.193554429645</v>
       </c>
       <c r="AD13" t="n">
-        <v>688799.6396047664</v>
+        <v>918016.9051572138</v>
       </c>
       <c r="AE13" t="n">
-        <v>942446.0546026856</v>
+        <v>1256071.229683606</v>
       </c>
       <c r="AF13" t="n">
         <v>4.096636153615823e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>48</v>
+        <v>47.08333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>852500.3258827497</v>
+        <v>1136193.554429645</v>
       </c>
     </row>
   </sheetData>
